--- a/reference/table_html/Core6ResourcesTable.xlsx
+++ b/reference/table_html/Core6ResourcesTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/table_html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B2F34C-0BA5-CF46-8B09-E615D0009810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75792F06-E9B0-AD43-8CC9-810A1FB74AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="660" windowWidth="29820" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3700" yWindow="460" windowWidth="38120" windowHeight="20880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="MedicationRequestTable" sheetId="6" r:id="rId3"/>
     <sheet name="ObservationLabTable" sheetId="9" r:id="rId4"/>
     <sheet name="dosageInstructionTable" sheetId="7" r:id="rId5"/>
+    <sheet name="Patient" sheetId="11" r:id="rId6"/>
+    <sheet name="Encounter" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_ftn1" localSheetId="2">MedicationRequestTable!#REF!</definedName>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="872">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -7543,12 +7546,488 @@
     </rPh>
     <phoneticPr fontId="25"/>
   </si>
+  <si>
+    <t>Encounterリソースであることを示す。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>"Encounter"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">準拠しているプロファイルを受信側に通知したい場合には、本文書のプロファイルを識別するURLを指定する。
+http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Encounter_eCS　を設定する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>電子カルテ情報共有サービスに本リソースデータを送信する場合には、http://jpfhir.jp/fhir/clins/StructureDefinition/JP_Encounter_eCS　を設定すること。</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>"http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Encounter_eCS"
+または
+"http://jpfhir.jp/fhir/clins/StructureDefinition/JP_Encounter_eCS"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>"http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier"</t>
+  </si>
+  <si>
+    <t>"finished"</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>受診イベントの分類</t>
+  </si>
+  <si>
+    <t>"http://terminology. hl7.org/CodeSystem/v3-ActCode"</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>入院期間を表す必要がある場合には必須。外来では必要な場合を除き省略可。</t>
+  </si>
+  <si>
+    <t>"2020-08-24"</t>
+  </si>
+  <si>
+    <t>上記イベントの終了日時。入院の場合には退院日、外来受診の場合には不要。</t>
+  </si>
+  <si>
+    <t>Priod</t>
+  </si>
+  <si>
+    <t>この入院の入院日時</t>
+  </si>
+  <si>
+    <t>"2020-09-18"</t>
+  </si>
+  <si>
+    <t>この入院の退院日時</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>この入院の在院日数</t>
+  </si>
+  <si>
+    <t>在院日数。値は例示。</t>
+  </si>
+  <si>
+    <t>在院日数の単位文字列。固定値。</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>Reference(Condition)</t>
+  </si>
+  <si>
+    <t>患者状態（病態・疾患名・症状）への参照</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>同じ診断名に複数の診断位置付けコードをつけることができる。</t>
+  </si>
+  <si>
+    <t>"DD"</t>
+  </si>
+  <si>
+    <t>コードに対する名称。値は例示。</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>positiveInt</t>
+  </si>
+  <si>
+    <t>hospitalization</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>Reference(Location | Organization)</t>
+  </si>
+  <si>
+    <t>入院前の所在場所または施設への参照。</t>
+  </si>
+  <si>
+    <t>admitSource</t>
+  </si>
+  <si>
+    <t>reAdmission</t>
+  </si>
+  <si>
+    <t>specialCourtesy</t>
+  </si>
+  <si>
+    <t>SpecialArrangement</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>退院先場所または施設への参照。</t>
+  </si>
+  <si>
+    <t>dischargeDisposition</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Reference(Location)</t>
+  </si>
+  <si>
+    <t>入院中の所在場所（病棟病室など）への参照</t>
+  </si>
+  <si>
+    <t>"completed"</t>
+  </si>
+  <si>
+    <t>physicalType</t>
+  </si>
+  <si>
+    <t>"http://terminology.hl7.org/CodeSystem/location-physical-type"</t>
+  </si>
+  <si>
+    <t>preiod</t>
+  </si>
+  <si>
+    <t>所在期間</t>
+  </si>
+  <si>
+    <t>所在期間の開始日時</t>
+  </si>
+  <si>
+    <t>所在期間の終了日時</t>
+  </si>
+  <si>
+    <t>この医療機関における入院管理番号、あるいは受診歴管理番号。</t>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ジュシｎ </t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">レキ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">カンリ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>入院管理番号、受診歴管理番号の文字列。値は例示。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>この情報のステータス。EncounterStatus(http:// hl7.org/fhir/ValueSet/encouner-status)より"finished"を指定する。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>入院または受診イベントの分類情報。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ニュウイｎ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>“IMP"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>付番方法については「識別子名前空間一覧」を参照。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>入院時主訴・入院理由。
+診療情報提供書の場合、その理由（主訴・目的）
+コードで記述できる場合にそのコード記述。system値はMEDIS標準病名マスター病名交換用コードを使用する場合の例示。"BOEF"は、MEDIS標準病名マスター病名交換用コードで"持続腹痛"のコード。"持続腹痛"は、入院時主訴・入院理由のテキスト記述。
+診療情報提供書の場合、text要素で理由を自由記述すること。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>入退院詳細情報。診療情報提供書では不要。退院時サマリーでは必須。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>所在場所のタイプ。system値は固定値。
+bu: 建物
+wa: 病棟
+ro: 病室
+bd: ベッド
+area: エリア　など。</t>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">チ </t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t xml:space="preserve">コテイチ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t xml:space="preserve">固定値 
+</t>
+    <rPh sb="0" eb="3">
+      <t>コテイチ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>入院中の所在場所（病棟病室など）。診療情報提供書では不要。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>特別調整を要する入院。車椅子、増設ベッド、通訳、付き添い、盲導犬等の必要性。当面未使用</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>再入院の場合の再入院種類。当面未使用</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/eCS/CodeSystem/admit-Source</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/eCS/CodeSystem/discharge-disposition</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>http://medis.or.jp/CodeSystem/master-disease-exCode</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>入院期間中の診断情報。診療情報提供書では不要。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>診断の位置付け区分。
+（DiagnosisRole）。これにより、入院時診断、退院時診断、などが区別される。入院中のすべての診断病名にこのコードが必須ではないが、少なくともAD:入院時診断、DD:退院時診断、CC:主訴、についてはそれぞれ1個以上はこのコードがついている必要がある。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>location[*]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>location[+]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>location[=]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>diagnosis[*]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>diagnosis[+]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>diagnosis[=]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>use</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>reasonCode[*]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>classHistory[*]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>classHistory[+]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>classHistory[=]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>この入院期間までの外来受診履歴や入院履歴を記述したい場合にここに繰り返しで記述する。紹介先受診情報では不要。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>identifier[*]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>コード体系v3.ActEncounterCodeを識別するURI。</t>
+    <rPh sb="32" eb="33">
+      <t>。</t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>「IMP:入院(inpatient Encounter)」または、「AMB:外来受診(ambulatory)」。退院時サマリーで退院時を記述する場合には"IMP"を使用する。INPではなくIMPであることに注意。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>“入院” または”外来”</t>
+  </si>
+  <si>
+    <t>コード体系v3.ActEncounterCodeを識別するURI。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>「IMP:入院(inpatient Encounter)」または、「AMB:外来受診(ambulatory)」
+退院時サマリーで退院時を記述する場合には"IMP"を使用する。
+* INPではなくIMPであることに注意。</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>“IMP” または”AMB”</t>
+  </si>
+  <si>
+    <t>"入院"または"外来"</t>
+  </si>
+  <si>
+    <t>"日"</t>
+  </si>
+  <si>
+    <t>単位コードUCUMのコード体系を識別するURI。固定値。</t>
+  </si>
+  <si>
+    <t>日を意味する単位コード「d」。固定値。</t>
+  </si>
+  <si>
+    <t>診断位置付けValueSet（FHIR準拠の場合のコード表）</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>http://terminology.hl7.org/CodeSystem/diagnosis-role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>AD:入院時診断、DD:退院時診断、CC:主訴、CM:併存症診断、pre-op:術前診断、post-op:術後診断、billing:会計請求診断（FHIR準拠の場合のコード表）。値は例示。</t>
+  </si>
+  <si>
+    <t>"退院時診断"</t>
+  </si>
+  <si>
+    <t>同じ診断位置付け内での順序数値（1から順）。順序は医療者の意図によりつけてよい。値は例示。</t>
+  </si>
+  <si>
+    <t>入院経路を表すコード情報。値は例示。system値は固定値。
+（出典：厚労省DPC導入影響評価調査）
+0 院内の他病棟からの転棟
+1 家庭からの入院
+4 他の病院・診療所の病棟からの転院
+5 介護施設・福祉施設に入所中
+8 院内で出生
+9 その他</t>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">チ </t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t xml:space="preserve">コテイチ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>特別配慮を要する入院。VIP、職員、医療専門職といった区分。当面未使用</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>退院時転帰コード情報。コード表は暫定（出典：厚労省DPC導入影響評価調査）
+1:傷病が治癒・軽快
+3:傷病（白血病、潰瘍性大腸炎、クローン病等）が寛解
+4:傷病が不変
+5:傷病が増悪
+6:傷病による死亡
+7:傷病以外による死亡
+9:その他（検査入院,正常分娩及び人間ドック含む）</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>planned | active | reserved | completed のいずれかであるが、退院時サマリーの場合には、"completed"。</t>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>identifier[+]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>identifier[=]</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>"2020-09-01"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>入院期間、受診イベント期間。退院時サマリーでは必須。</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ジュシｎ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">キカｎ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>上記イベントの開始日時。入院の場合には入院日、外来受診の場合には診療情報提供書の記載基準となった外来受診日に相当するが、period要素自体は省略できる。</t>
+    <phoneticPr fontId="25"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="55">
+  <fonts count="58">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7972,8 +8451,30 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8235,6 +8736,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -9053,7 +9560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="346">
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -9981,6 +10488,30 @@
     <xf numFmtId="0" fontId="29" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="45" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="46" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9996,6 +10527,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -10005,47 +10539,65 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="47" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="46" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="24" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="46" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -10407,8 +10959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABE7DEB-C8F0-114E-A052-43736963B722}">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I111"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10423,17 +10975,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="316" t="s">
         <v>726</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
     </row>
     <row r="2" spans="1:12" ht="75">
       <c r="A2" s="1" t="s">
@@ -10695,7 +11247,7 @@
         <v>232</v>
       </c>
       <c r="F13" s="75"/>
-      <c r="G13" s="319" t="s">
+      <c r="G13" s="309" t="s">
         <v>729</v>
       </c>
       <c r="H13" s="52"/>
@@ -11596,7 +12148,7 @@
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="329" t="s">
+      <c r="E51" s="314" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="6" t="s">
@@ -11612,12 +12164,12 @@
         <v>749</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="195">
+    <row r="52" spans="1:9" ht="210">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="330"/>
+      <c r="E52" s="315"/>
       <c r="F52" s="6"/>
       <c r="G52" s="21" t="s">
         <v>737</v>
@@ -13072,8 +13624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBECD93-FC6E-E74E-9740-51BFFDF6F421}">
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -13088,17 +13640,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="316" t="s">
         <v>726</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
     </row>
     <row r="2" spans="1:12" ht="75">
       <c r="A2" s="1" t="s">
@@ -13414,7 +13966,7 @@
         <v>232</v>
       </c>
       <c r="F15" s="75"/>
-      <c r="G15" s="319" t="s">
+      <c r="G15" s="309" t="s">
         <v>729</v>
       </c>
       <c r="H15" s="52"/>
@@ -14331,7 +14883,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="195">
+    <row r="54" spans="1:18" ht="210">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -15069,22 +15621,22 @@
       <c r="I85" s="30"/>
     </row>
     <row r="86" spans="1:9" ht="28">
-      <c r="A86" s="313"/>
-      <c r="B86" s="309" t="s">
+      <c r="A86" s="321"/>
+      <c r="B86" s="317" t="s">
         <v>305</v>
       </c>
-      <c r="C86" s="309"/>
-      <c r="D86" s="309"/>
-      <c r="E86" s="309" t="s">
+      <c r="C86" s="317"/>
+      <c r="D86" s="317"/>
+      <c r="E86" s="317" t="s">
         <v>46</v>
       </c>
-      <c r="F86" s="309" t="s">
+      <c r="F86" s="317" t="s">
         <v>47</v>
       </c>
-      <c r="G86" s="309" t="s">
+      <c r="G86" s="317" t="s">
         <v>306</v>
       </c>
-      <c r="H86" s="310" t="s">
+      <c r="H86" s="318" t="s">
         <v>257</v>
       </c>
       <c r="I86" s="30" t="s">
@@ -15092,27 +15644,27 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="313"/>
-      <c r="B87" s="309"/>
-      <c r="C87" s="309"/>
-      <c r="D87" s="309"/>
-      <c r="E87" s="309"/>
-      <c r="F87" s="309"/>
-      <c r="G87" s="309"/>
-      <c r="H87" s="311"/>
+      <c r="A87" s="321"/>
+      <c r="B87" s="317"/>
+      <c r="C87" s="317"/>
+      <c r="D87" s="317"/>
+      <c r="E87" s="317"/>
+      <c r="F87" s="317"/>
+      <c r="G87" s="317"/>
+      <c r="H87" s="319"/>
       <c r="I87" s="30" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="313"/>
-      <c r="B88" s="309"/>
-      <c r="C88" s="309"/>
-      <c r="D88" s="309"/>
-      <c r="E88" s="309"/>
-      <c r="F88" s="309"/>
-      <c r="G88" s="309"/>
-      <c r="H88" s="312"/>
+      <c r="A88" s="321"/>
+      <c r="B88" s="317"/>
+      <c r="C88" s="317"/>
+      <c r="D88" s="317"/>
+      <c r="E88" s="317"/>
+      <c r="F88" s="317"/>
+      <c r="G88" s="317"/>
+      <c r="H88" s="320"/>
       <c r="I88" s="30" t="s">
         <v>248</v>
       </c>
@@ -15316,7 +15868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -15335,18 +15887,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" customFormat="1" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="316" t="s">
         <v>726</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="320"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="322"/>
     </row>
     <row r="2" spans="1:10" ht="76" thickBot="1">
       <c r="A2" s="106" t="s">
@@ -16474,7 +17026,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="48" spans="1:10" customFormat="1" ht="195">
+    <row r="48" spans="1:10" customFormat="1" ht="210">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -17482,17 +18034,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="316" t="s">
         <v>726</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
     </row>
     <row r="2" spans="1:11" ht="76" thickBot="1">
       <c r="A2" s="190" t="s">
@@ -18310,11 +18862,11 @@
       <c r="E37" s="271" t="s">
         <v>216</v>
       </c>
-      <c r="G37" s="321" t="s">
+      <c r="G37" s="326" t="s">
         <v>648</v>
       </c>
-      <c r="H37" s="314"/>
-      <c r="I37" s="315"/>
+      <c r="H37" s="323"/>
+      <c r="I37" s="324"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="31" t="s">
@@ -18331,9 +18883,9 @@
       <c r="F38" s="28" t="s">
         <v>499</v>
       </c>
-      <c r="G38" s="317"/>
-      <c r="H38" s="311"/>
-      <c r="I38" s="316"/>
+      <c r="G38" s="327"/>
+      <c r="H38" s="319"/>
+      <c r="I38" s="325"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="31" t="s">
@@ -18352,9 +18904,9 @@
       <c r="F39" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="G39" s="317"/>
-      <c r="H39" s="311"/>
-      <c r="I39" s="316"/>
+      <c r="G39" s="327"/>
+      <c r="H39" s="319"/>
+      <c r="I39" s="325"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="31" t="s">
@@ -18373,9 +18925,9 @@
       <c r="F40" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="G40" s="317"/>
-      <c r="H40" s="311"/>
-      <c r="I40" s="316"/>
+      <c r="G40" s="327"/>
+      <c r="H40" s="319"/>
+      <c r="I40" s="325"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="31" t="s">
@@ -18394,9 +18946,9 @@
       <c r="F41" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="G41" s="317"/>
-      <c r="H41" s="311"/>
-      <c r="I41" s="316"/>
+      <c r="G41" s="327"/>
+      <c r="H41" s="319"/>
+      <c r="I41" s="325"/>
     </row>
     <row r="42" spans="1:9" ht="21" thickBot="1">
       <c r="A42" s="264" t="s">
@@ -18413,34 +18965,34 @@
       <c r="F42" s="220" t="s">
         <v>442</v>
       </c>
-      <c r="G42" s="317"/>
-      <c r="H42" s="311"/>
-      <c r="I42" s="316"/>
+      <c r="G42" s="327"/>
+      <c r="H42" s="319"/>
+      <c r="I42" s="325"/>
     </row>
     <row r="43" spans="1:9" ht="86" customHeight="1">
-      <c r="A43" s="322" t="s">
+      <c r="A43" s="310" t="s">
         <v>236</v>
       </c>
-      <c r="B43" s="323"/>
-      <c r="C43" s="323"/>
-      <c r="D43" s="323"/>
-      <c r="E43" s="324" t="s">
+      <c r="B43" s="311"/>
+      <c r="C43" s="311"/>
+      <c r="D43" s="311"/>
+      <c r="E43" s="312" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="323" t="s">
+      <c r="F43" s="311" t="s">
         <v>476</v>
       </c>
-      <c r="G43" s="323" t="s">
+      <c r="G43" s="311" t="s">
         <v>751</v>
       </c>
-      <c r="H43" s="323" t="s">
+      <c r="H43" s="311" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="325" t="s">
+      <c r="I43" s="313" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="195">
+    <row r="44" spans="1:9" ht="210">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -18815,156 +19367,156 @@
       <c r="I61" s="243"/>
     </row>
     <row r="62" spans="1:9" ht="30">
-      <c r="A62" s="326" t="s">
+      <c r="A62" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="B62" s="326"/>
-      <c r="C62" s="326"/>
-      <c r="D62" s="326"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="250" t="s">
         <v>46</v>
       </c>
-      <c r="F62" s="326" t="s">
+      <c r="F62" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="G62" s="327" t="s">
+      <c r="G62" s="29" t="s">
         <v>672</v>
       </c>
-      <c r="H62" s="327"/>
-      <c r="I62" s="328"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="243"/>
     </row>
     <row r="63" spans="1:9" ht="30">
-      <c r="A63" s="326" t="s">
+      <c r="A63" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="B63" s="326"/>
-      <c r="C63" s="326"/>
-      <c r="D63" s="326"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
       <c r="E63" s="250" t="s">
         <v>46</v>
       </c>
-      <c r="F63" s="326" t="s">
+      <c r="F63" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="G63" s="327" t="s">
+      <c r="G63" s="29" t="s">
         <v>671</v>
       </c>
-      <c r="H63" s="327"/>
-      <c r="I63" s="328"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="243"/>
     </row>
     <row r="64" spans="1:9" ht="30">
-      <c r="A64" s="326" t="s">
+      <c r="A64" s="28" t="s">
         <v>572</v>
       </c>
-      <c r="B64" s="326"/>
-      <c r="C64" s="326"/>
-      <c r="D64" s="326"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="250" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="326" t="s">
+      <c r="F64" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="G64" s="327" t="s">
+      <c r="G64" s="29" t="s">
         <v>670</v>
       </c>
-      <c r="H64" s="327"/>
-      <c r="I64" s="328"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="243"/>
     </row>
     <row r="65" spans="1:9" ht="30">
-      <c r="A65" s="326" t="s">
+      <c r="A65" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="B65" s="326"/>
-      <c r="C65" s="326"/>
-      <c r="D65" s="326"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
       <c r="E65" s="250" t="s">
         <v>46</v>
       </c>
-      <c r="F65" s="326" t="s">
+      <c r="F65" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="G65" s="327" t="s">
+      <c r="G65" s="29" t="s">
         <v>669</v>
       </c>
-      <c r="H65" s="327"/>
-      <c r="I65" s="328"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="243"/>
     </row>
     <row r="66" spans="1:9" ht="30">
-      <c r="A66" s="326" t="s">
+      <c r="A66" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="B66" s="326"/>
-      <c r="C66" s="326"/>
-      <c r="D66" s="326"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="250" t="s">
         <v>46</v>
       </c>
-      <c r="F66" s="326" t="s">
+      <c r="F66" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="G66" s="327" t="s">
+      <c r="G66" s="29" t="s">
         <v>668</v>
       </c>
-      <c r="H66" s="327"/>
-      <c r="I66" s="328"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="243"/>
     </row>
     <row r="67" spans="1:9" ht="30">
-      <c r="A67" s="326" t="s">
+      <c r="A67" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="B67" s="326"/>
-      <c r="C67" s="326"/>
-      <c r="D67" s="326"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
       <c r="E67" s="250" t="s">
         <v>46</v>
       </c>
-      <c r="F67" s="326" t="s">
+      <c r="F67" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="G67" s="327" t="s">
+      <c r="G67" s="29" t="s">
         <v>667</v>
       </c>
-      <c r="H67" s="327"/>
-      <c r="I67" s="328"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="243"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="326" t="s">
+      <c r="A68" s="28" t="s">
         <v>577</v>
       </c>
-      <c r="B68" s="326"/>
-      <c r="C68" s="326"/>
-      <c r="D68" s="326"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
       <c r="E68" s="250" t="s">
         <v>46</v>
       </c>
-      <c r="F68" s="326" t="s">
+      <c r="F68" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G68" s="327" t="s">
+      <c r="G68" s="29" t="s">
         <v>666</v>
       </c>
-      <c r="H68" s="327"/>
-      <c r="I68" s="328"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="243"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="326" t="s">
+      <c r="A69" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="B69" s="326"/>
-      <c r="C69" s="326"/>
-      <c r="D69" s="326"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
       <c r="E69" s="250" t="s">
         <v>46</v>
       </c>
-      <c r="F69" s="326" t="s">
+      <c r="F69" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="G69" s="327" t="s">
+      <c r="G69" s="29" t="s">
         <v>665</v>
       </c>
-      <c r="H69" s="327"/>
-      <c r="I69" s="328"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="243"/>
     </row>
     <row r="70" spans="1:9" ht="75">
       <c r="A70" s="31" t="s">
@@ -19789,8 +20341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8041F143-9745-0F47-AF52-83FBDDF6384B}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A2" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -19806,17 +20358,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="316" t="s">
         <v>726</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="166" t="s">
@@ -21701,4 +22253,1262 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE312F1-062C-B64C-BF71-6A4F8B76ADF9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="25"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3324F69-8E84-A848-A7FF-2D5A2318CA27}">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="339" customWidth="1"/>
+    <col min="2" max="4" width="7.85546875" style="339" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="339" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="339" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="339" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="339" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="345" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="339"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1">
+      <c r="A1" s="338" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+    </row>
+    <row r="2" spans="1:9" ht="75">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="328" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="328" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="328" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="329" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="328" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="328" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="328" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="330" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30">
+      <c r="A3" s="211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="331" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="259"/>
+      <c r="G3" s="332" t="s">
+        <v>766</v>
+      </c>
+      <c r="H3" s="259" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="333" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="211" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="259"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="334" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="259" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="259" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="259"/>
+      <c r="I4" s="333"/>
+    </row>
+    <row r="5" spans="1:9" ht="255">
+      <c r="A5" s="211" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="259" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="259"/>
+      <c r="D5" s="259"/>
+      <c r="E5" s="334" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="259" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="259" t="s">
+        <v>260</v>
+      </c>
+      <c r="H5" s="259" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="333" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="120">
+      <c r="A6" s="211" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="259" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="335" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="259" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="336" t="s">
+        <v>768</v>
+      </c>
+      <c r="H6" s="259" t="s">
+        <v>725</v>
+      </c>
+      <c r="I6" s="337" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="340" t="s">
+        <v>847</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="333"/>
+    </row>
+    <row r="8" spans="1:9" ht="45">
+      <c r="A8" s="340" t="s">
+        <v>867</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="I8" s="333" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="340" t="s">
+        <v>868</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="I9" s="333" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45">
+      <c r="A10" s="340" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="341" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>819</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="I10" s="333" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="340" t="s">
+        <v>772</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="341" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="333"/>
+    </row>
+    <row r="12" spans="1:9" ht="45">
+      <c r="A12" s="340" t="s">
+        <v>772</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="341" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="I12" s="333" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60">
+      <c r="A13" s="340" t="s">
+        <v>772</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="341" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>849</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="I13" s="333" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="340" t="s">
+        <v>772</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="341" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="I14" s="333" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45">
+      <c r="A15" s="340" t="s">
+        <v>843</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="333"/>
+    </row>
+    <row r="16" spans="1:9" ht="34" customHeight="1">
+      <c r="A16" s="340" t="s">
+        <v>844</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>773</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="333"/>
+    </row>
+    <row r="17" spans="1:9" ht="45">
+      <c r="A17" s="340" t="s">
+        <v>845</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>851</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="I17" s="333" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75">
+      <c r="A18" s="340" t="s">
+        <v>845</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29" t="s">
+        <v>852</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="333" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="26" customHeight="1">
+      <c r="A19" s="340" t="s">
+        <v>845</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="333" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30">
+      <c r="A20" s="340" t="s">
+        <v>845</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="333"/>
+    </row>
+    <row r="21" spans="1:9" ht="45">
+      <c r="A21" s="340" t="s">
+        <v>845</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>871</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="333" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30">
+      <c r="A22" s="340" t="s">
+        <v>845</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>778</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="333" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="340" t="s">
+        <v>775</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>779</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>870</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="333"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="340" t="s">
+        <v>775</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>780</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="333" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="340" t="s">
+        <v>775</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>782</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="333" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="340" t="s">
+        <v>783</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="333"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="340" t="s">
+        <v>783</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>785</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="333">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="340" t="s">
+        <v>783</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="333" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="24" customHeight="1">
+      <c r="A29" s="340" t="s">
+        <v>783</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>856</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="333" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="340" t="s">
+        <v>783</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>857</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="333" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="135">
+      <c r="A31" s="340" t="s">
+        <v>842</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="342" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="I31" s="343" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="340" t="s">
+        <v>838</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29" t="s">
+        <v>833</v>
+      </c>
+      <c r="H32" s="29"/>
+      <c r="I32" s="333"/>
+    </row>
+    <row r="33" spans="1:9" ht="30">
+      <c r="A33" s="340" t="s">
+        <v>839</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="H33" s="29"/>
+      <c r="I33" s="333"/>
+    </row>
+    <row r="34" spans="1:9" ht="90">
+      <c r="A34" s="340" t="s">
+        <v>840</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="333"/>
+    </row>
+    <row r="35" spans="1:9" ht="30">
+      <c r="A35" s="340" t="s">
+        <v>840</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>841</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29" t="s">
+        <v>791</v>
+      </c>
+      <c r="H35" s="29"/>
+      <c r="I35" s="333"/>
+    </row>
+    <row r="36" spans="1:9" ht="30">
+      <c r="A36" s="340" t="s">
+        <v>840</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29" t="s">
+        <v>858</v>
+      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="333" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="45">
+      <c r="A37" s="340" t="s">
+        <v>840</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29" t="s">
+        <v>860</v>
+      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="333" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="340" t="s">
+        <v>840</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29" t="s">
+        <v>793</v>
+      </c>
+      <c r="H38" s="29"/>
+      <c r="I38" s="333" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30">
+      <c r="A39" s="340" t="s">
+        <v>840</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>794</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>795</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="H39" s="29"/>
+      <c r="I39" s="333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30">
+      <c r="A40" s="340" t="s">
+        <v>796</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="H40" s="29"/>
+      <c r="I40" s="333"/>
+    </row>
+    <row r="41" spans="1:9" ht="60">
+      <c r="A41" s="340" t="s">
+        <v>796</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>797</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>798</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>799</v>
+      </c>
+      <c r="H41" s="29"/>
+      <c r="I41" s="333"/>
+    </row>
+    <row r="42" spans="1:9" ht="135">
+      <c r="A42" s="340" t="s">
+        <v>796</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>800</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>863</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>690</v>
+      </c>
+      <c r="I42" s="343" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="30">
+      <c r="A43" s="340" t="s">
+        <v>796</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>801</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="H43" s="29"/>
+      <c r="I43" s="333"/>
+    </row>
+    <row r="44" spans="1:9" ht="30">
+      <c r="A44" s="340" t="s">
+        <v>796</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>864</v>
+      </c>
+      <c r="H44" s="29"/>
+      <c r="I44" s="333"/>
+    </row>
+    <row r="45" spans="1:9" ht="30">
+      <c r="A45" s="340" t="s">
+        <v>796</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>803</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="H45" s="29"/>
+      <c r="I45" s="333"/>
+    </row>
+    <row r="46" spans="1:9" ht="60">
+      <c r="A46" s="340" t="s">
+        <v>796</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>804</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>798</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>805</v>
+      </c>
+      <c r="H46" s="29"/>
+      <c r="I46" s="333"/>
+    </row>
+    <row r="47" spans="1:9" ht="135">
+      <c r="A47" s="340" t="s">
+        <v>796</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>865</v>
+      </c>
+      <c r="H47" s="29"/>
+      <c r="I47" s="343" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="30">
+      <c r="A48" s="340" t="s">
+        <v>835</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>827</v>
+      </c>
+      <c r="H48" s="29"/>
+      <c r="I48" s="333"/>
+    </row>
+    <row r="49" spans="1:9" ht="30">
+      <c r="A49" s="340" t="s">
+        <v>836</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>807</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>808</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>809</v>
+      </c>
+      <c r="H49" s="29"/>
+      <c r="I49" s="333"/>
+    </row>
+    <row r="50" spans="1:9" ht="30">
+      <c r="A50" s="340" t="s">
+        <v>837</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>866</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="I50" s="333" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="90">
+      <c r="A51" s="340" t="s">
+        <v>837</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>811</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>826</v>
+      </c>
+      <c r="I51" s="333" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="340" t="s">
+        <v>837</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>814</v>
+      </c>
+      <c r="H52" s="29"/>
+      <c r="I52" s="333"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="340" t="s">
+        <v>837</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>815</v>
+      </c>
+      <c r="H53" s="29"/>
+      <c r="I53" s="333"/>
+    </row>
+    <row r="54" spans="1:9" ht="16" thickBot="1">
+      <c r="A54" s="340" t="s">
+        <v>837</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>816</v>
+      </c>
+      <c r="H54" s="34"/>
+      <c r="I54" s="344"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="25"/>
+  <hyperlinks>
+    <hyperlink ref="I42" r:id="rId1" xr:uid="{5B997632-6B87-A14E-B2FF-9691BDD18A5B}"/>
+    <hyperlink ref="I47" r:id="rId2" xr:uid="{293D0020-C22B-FF4C-AB19-0A557121555C}"/>
+    <hyperlink ref="I31" r:id="rId3" xr:uid="{75E7DCA2-31B7-F044-BDF8-1BB30EADE6BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA51B31-D557-FD41-A2B8-19570CE4A75D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="25"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reference/table_html/Core6ResourcesTable.xlsx
+++ b/reference/table_html/Core6ResourcesTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/table_html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E07AE9D-E9EE-904B-ABF5-717B5C31CC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12643301-1320-3547-B08D-160D4B23DD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="3440" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -30,9 +30,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>

--- a/reference/table_html/Core6ResourcesTable.xlsx
+++ b/reference/table_html/Core6ResourcesTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/table_html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12643301-1320-3547-B08D-160D4B23DD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4316DCED-E3F5-E446-9B57-D087A138CF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="3440" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -7828,27 +7828,11 @@
     <phoneticPr fontId="25"/>
   </si>
   <si>
-    <t>「IMP:入院(inpatient Encounter)」または、「AMB:外来受診(ambulatory)」。退院時サマリーで退院時を記述する場合には"IMP"を使用する。INPではなくIMPであることに注意。</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>“入院” または”外来”</t>
-  </si>
-  <si>
     <t>コード体系v3.ActEncounterCodeを識別するURI。</t>
     <phoneticPr fontId="25"/>
   </si>
   <si>
-    <t>「IMP:入院(inpatient Encounter)」または、「AMB:外来受診(ambulatory)」
-退院時サマリーで退院時を記述する場合には"IMP"を使用する。
-* INPではなくIMPであることに注意。</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
     <t>“IMP” または”AMB”</t>
-  </si>
-  <si>
-    <t>"入院"または"外来"</t>
   </si>
   <si>
     <t>"日"</t>
@@ -8032,6 +8016,36 @@
   </si>
   <si>
     <t>"completed"　または　"active"</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>“入院中” または”外来”</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">チュウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>「IMP:入院中(inpatient Encounter)」または、「AMB:外来(ambulatory)」。退院時サマリーで退院時を記述する場合には"IMP"を使用する。INPではなくIMPであることに注意。</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">チュウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>「IMP:入院中(inpatient Encounter)」または、「AMB:外来(ambulatory)」
+退院時サマリーで退院時を記述する場合には"IMP"を使用する。
+* INPではなくIMPであることに注意。</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">チュウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>"入院中"または"外来"</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">チュウ </t>
+    </rPh>
     <phoneticPr fontId="25"/>
   </si>
 </sst>
@@ -11163,7 +11177,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="286" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30">
@@ -12190,7 +12204,7 @@
         <v>17</v>
       </c>
       <c r="I52" s="286" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="90">
@@ -13828,7 +13842,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30">
@@ -13882,7 +13896,7 @@
         <v>11</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30">
@@ -14909,7 +14923,7 @@
         <v>17</v>
       </c>
       <c r="I54" s="286" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="90">
@@ -15880,7 +15894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C32" zoomScale="208" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -16083,7 +16097,7 @@
         <v>11</v>
       </c>
       <c r="J8" s="153" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="135" customFormat="1" ht="31" thickBot="1">
@@ -16731,13 +16745,13 @@
         <v>28</v>
       </c>
       <c r="H35" s="148" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="I35" s="149" t="s">
         <v>11</v>
       </c>
       <c r="J35" s="158" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="31" thickBot="1">
@@ -17053,7 +17067,7 @@
         <v>17</v>
       </c>
       <c r="J48" s="286" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="49" spans="1:10" customFormat="1" ht="90">
@@ -18217,7 +18231,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="153" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="135" customFormat="1" ht="30">
@@ -19018,7 +19032,7 @@
         <v>17</v>
       </c>
       <c r="I44" s="286" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="90">
@@ -22271,8 +22285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3324F69-8E84-A848-A7FF-2D5A2318CA27}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -22440,7 +22454,7 @@
     </row>
     <row r="8" spans="1:9" ht="45">
       <c r="A8" s="327" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>24</v>
@@ -22463,7 +22477,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="327" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>41</v>
@@ -22567,7 +22581,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>256</v>
@@ -22596,7 +22610,7 @@
         <v>256</v>
       </c>
       <c r="I14" s="321" t="s">
-        <v>846</v>
+        <v>868</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45">
@@ -22655,7 +22669,7 @@
         <v>25</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="H17" s="29" t="s">
         <v>722</v>
@@ -22680,11 +22694,11 @@
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29" t="s">
-        <v>848</v>
+        <v>870</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="321" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="26" customHeight="1">
@@ -22705,7 +22719,7 @@
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="321" t="s">
-        <v>850</v>
+        <v>871</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30">
@@ -22745,7 +22759,7 @@
         <v>82</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="321" t="s">
@@ -22791,7 +22805,7 @@
         <v>775</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="321"/>
@@ -22816,7 +22830,7 @@
       </c>
       <c r="H24" s="29"/>
       <c r="I24" s="321" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -22904,7 +22918,7 @@
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="321" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="24" customHeight="1">
@@ -22923,7 +22937,7 @@
         <v>25</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="321" t="s">
@@ -22946,7 +22960,7 @@
         <v>28</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="H30" s="29"/>
       <c r="I30" s="321" t="s">
@@ -23074,11 +23088,11 @@
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="321" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="45">
@@ -23099,7 +23113,7 @@
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="29" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="321" t="s">
@@ -23128,7 +23142,7 @@
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="321" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30">
@@ -23147,7 +23161,7 @@
         <v>791</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="H39" s="29"/>
       <c r="I39" s="321">
@@ -23210,7 +23224,7 @@
         <v>46</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="H42" s="29" t="s">
         <v>687</v>
@@ -23256,7 +23270,7 @@
         <v>46</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="321"/>
@@ -23319,7 +23333,7 @@
         <v>46</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="H47" s="29"/>
       <c r="I47" s="330" t="s">
@@ -23382,7 +23396,7 @@
         <v>28</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="H50" s="29" t="s">
         <v>671</v>

--- a/reference/table_html/Core6ResourcesTable.xlsx
+++ b/reference/table_html/Core6ResourcesTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/table_html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4316DCED-E3F5-E446-9B57-D087A138CF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0891D9F8-AF8C-F648-B79A-4FD2B2620965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -12190,7 +12190,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="195">
+    <row r="52" spans="1:9" ht="210">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -14909,7 +14909,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="195">
+    <row r="54" spans="1:18" ht="210">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -17052,7 +17052,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="48" spans="1:10" customFormat="1" ht="195">
+    <row r="48" spans="1:10" customFormat="1" ht="210">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -18043,8 +18043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33D4670-3618-B947-8E34-E3DBE4848E0C}">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -18422,7 +18422,7 @@
         <v>404</v>
       </c>
       <c r="I17" s="207" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="21" thickBot="1">
@@ -19018,7 +19018,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="195">
+    <row r="44" spans="1:9" ht="210">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -22285,7 +22285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3324F69-8E84-A848-A7FF-2D5A2318CA27}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>

--- a/reference/table_html/Core6ResourcesTable.xlsx
+++ b/reference/table_html/Core6ResourcesTable.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/table_html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0891D9F8-AF8C-F648-B79A-4FD2B2620965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4939882-AE17-FC4C-A56A-88C06DAFE4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="500" windowWidth="27260" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
     <sheet name="ConditionTable" sheetId="4" r:id="rId2"/>
     <sheet name="MedicationRequestTable" sheetId="6" r:id="rId3"/>
-    <sheet name="ObservationLabTable" sheetId="9" r:id="rId4"/>
+    <sheet name="ObservationLabTable" sheetId="11" r:id="rId4"/>
     <sheet name="dosageInstructionTable" sheetId="7" r:id="rId5"/>
     <sheet name="Encounter" sheetId="10" r:id="rId6"/>
   </sheets>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="876">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -5194,22 +5194,6 @@
   </si>
   <si>
     <t>recorder要素から参照される場合には、そのJP_Practitionerリソースの実体。JP_Practitionerリソースにおける必要最小限の要素だけが含まれればよい。</t>
-  </si>
-  <si>
-    <t>specimen要素(検体材料情報bの要素)から参照される場合には、そのJP_Specimenリソースの実体。JP_Specimenリソースにおける必要最小限の要素だけが含まれればよい。</t>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">ケンタイ </t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t xml:space="preserve">ザイリョウ </t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t xml:space="preserve">ジョウホウ </t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">ヨウソ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>Resource(JP_ServiceRequest  )</t>
@@ -5821,39 +5805,6 @@
     <phoneticPr fontId="25"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">検体材料に関する情報を記述したSpecimenリソースをContainedリソースとして本リソースに埋め込んで、それを参照すること。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>電子カルテ共有サービスにおける6情報のひとつとして本リソースが記述される場合には、JP_Specimenタイプのリソース（Specimen.idの値が"#specimen203987"と仮定）が本リソースのContainedリソースとして埋め込み記述されることが必須であるため、そのcontainedリソースのid値(Specimen.id)を記述する例2となる。</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ケンタイ </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">ザイリョウ </t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">カンスル </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">ジョウホウ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">キジュツ </t>
-    </rPh>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
     <t>http://unitsofmeasure.org</t>
     <phoneticPr fontId="25"/>
   </si>
@@ -8048,12 +7999,176 @@
     </rPh>
     <phoneticPr fontId="25"/>
   </si>
+  <si>
+    <t>specimen要素(検体材料情報bの要素)から参照される場合には、そのJP_Specimenリソースの実体。JP_Specimenリソースにおける必要最小限の要素（type要素にJLAC10検体材料コード情報を設定するなど）だけが含まれればよい。</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ケンタイ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ザイリョウ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t xml:space="preserve">ケンタイ </t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t xml:space="preserve">ザイリョウ </t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">検体材料に関する情報を記述したSpecimenリソースをContainedリソースとして本リソースに埋め込んで、それを参照すること。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>電子カルテ共有サービスにおける6情報のひとつとして本リソースが記述される場合には、JP_Specimenタイプのリソース（Specimen.idの値が"#specimen203987"と仮定）が本リソースのContainedリソースとして埋め込み記述して、そのcontainedリソースのid値(Specimen.id)を記述する例２とするか、またはspecimen.display要素に材料文字列だけを記述する方式（以下の２行による例３）をとる。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケンタイ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ザイリョウ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">カンスル </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="232" eb="233">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <rPh sb="258" eb="260">
+      <t xml:space="preserve">ヨウソ </t>
+    </rPh>
+    <rPh sb="261" eb="263">
+      <t xml:space="preserve">ザイリョウ </t>
+    </rPh>
+    <rPh sb="263" eb="266">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="269" eb="271">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="273" eb="275">
+      <t xml:space="preserve">ホウシキ </t>
+    </rPh>
+    <rPh sb="276" eb="278">
+      <t xml:space="preserve">イカ </t>
+    </rPh>
+    <rPh sb="284" eb="285">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>参照するリソースタイプ　</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サンショウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例３　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"Specimen"</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>検体材料の文字列名称</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケンタイ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ザイリョウ </t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">メイショウ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例３　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"血清"</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ケッセイ </t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="58">
+  <fonts count="59">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8499,6 +8614,13 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="48">
     <fill>
@@ -8771,7 +8893,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -9433,15 +9555,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -9586,7 +9699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="346">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -10169,9 +10282,6 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -10310,9 +10420,6 @@
     <xf numFmtId="0" fontId="28" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="42" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10328,9 +10435,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10358,9 +10462,6 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10382,231 +10483,210 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="50" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="24" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="50" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="45" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="46" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="47" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="46" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="24" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="50" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="24" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="50" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="46" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="47" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="46" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="24" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -10622,8 +10702,26 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -11001,17 +11099,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="333" t="s">
-        <v>723</v>
-      </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="333"/>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="333"/>
-      <c r="G1" s="333"/>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
+      <c r="A1" s="322" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="G1" s="322"/>
+      <c r="H1" s="322"/>
+      <c r="I1" s="322"/>
     </row>
     <row r="2" spans="1:12" ht="75">
       <c r="A2" s="1" t="s">
@@ -11032,13 +11130,13 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="275" t="s">
+      <c r="G2" s="264" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="285" t="s">
+      <c r="I2" s="274" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11053,13 +11151,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="276" t="s">
+      <c r="G3" s="265" t="s">
         <v>208</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="286" t="s">
+      <c r="I3" s="275" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11080,7 +11178,7 @@
         <v>171</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="286"/>
+      <c r="I4" s="275"/>
     </row>
     <row r="5" spans="1:12" ht="251" customHeight="1">
       <c r="A5" s="5" t="s">
@@ -11103,7 +11201,7 @@
       <c r="H5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="286" t="s">
+      <c r="I5" s="275" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11123,13 +11221,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="I6" s="286" t="s">
-        <v>741</v>
+        <v>720</v>
+      </c>
+      <c r="I6" s="275" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11151,7 +11249,7 @@
         <v>172</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="286"/>
+      <c r="I7" s="275"/>
     </row>
     <row r="8" spans="1:12" ht="45">
       <c r="A8" s="5" t="s">
@@ -11171,13 +11269,13 @@
         <v>25</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="286" t="s">
-        <v>864</v>
+      <c r="I8" s="275" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30">
@@ -11203,7 +11301,7 @@
       <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="286" t="s">
+      <c r="I9" s="275" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11222,7 +11320,7 @@
         <v>171</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="286"/>
+      <c r="I10" s="275"/>
     </row>
     <row r="11" spans="1:12" ht="90">
       <c r="A11" s="5" t="s">
@@ -11241,7 +11339,7 @@
         <v>602</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="286"/>
+      <c r="I11" s="275"/>
     </row>
     <row r="12" spans="1:12" ht="45">
       <c r="A12" s="5" t="s">
@@ -11260,7 +11358,7 @@
         <v>603</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="286"/>
+      <c r="I12" s="275"/>
     </row>
     <row r="13" spans="1:12" ht="30">
       <c r="A13" s="95" t="s">
@@ -11273,55 +11371,55 @@
         <v>231</v>
       </c>
       <c r="F13" s="75"/>
-      <c r="G13" s="309" t="s">
-        <v>726</v>
+      <c r="G13" s="298" t="s">
+        <v>724</v>
       </c>
       <c r="H13" s="52"/>
-      <c r="I13" s="289"/>
+      <c r="I13" s="278"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="203" t="s">
+      <c r="A14" s="202" t="s">
         <v>401</v>
       </c>
-      <c r="B14" s="295"/>
-      <c r="C14" s="295"/>
-      <c r="D14" s="295"/>
-      <c r="E14" s="300" t="s">
+      <c r="B14" s="284"/>
+      <c r="C14" s="284"/>
+      <c r="D14" s="284"/>
+      <c r="E14" s="289" t="s">
         <v>217</v>
       </c>
-      <c r="F14" s="296" t="s">
+      <c r="F14" s="285" t="s">
         <v>278</v>
       </c>
-      <c r="G14" s="297"/>
-      <c r="H14" s="298"/>
-      <c r="I14" s="299"/>
+      <c r="G14" s="286"/>
+      <c r="H14" s="287"/>
+      <c r="I14" s="288"/>
       <c r="L14" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="133" customHeight="1">
-      <c r="A15" s="203" t="s">
+      <c r="A15" s="202" t="s">
         <v>402</v>
       </c>
-      <c r="B15" s="204" t="s">
+      <c r="B15" s="203" t="s">
         <v>399</v>
       </c>
-      <c r="C15" s="204"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="300" t="s">
+      <c r="C15" s="203"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="289" t="s">
         <v>224</v>
       </c>
-      <c r="F15" s="195" t="s">
+      <c r="F15" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="278" t="s">
-        <v>730</v>
-      </c>
-      <c r="H15" s="206" t="s">
+      <c r="G15" s="267" t="s">
+        <v>728</v>
+      </c>
+      <c r="H15" s="205" t="s">
         <v>404</v>
       </c>
-      <c r="I15" s="288" t="s">
-        <v>629</v>
+      <c r="I15" s="277" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="26">
@@ -11329,7 +11427,7 @@
         <v>402</v>
       </c>
       <c r="B16" s="90" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C16" s="90"/>
       <c r="D16" s="90"/>
@@ -11337,20 +11435,20 @@
         <v>10</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>620</v>
-      </c>
-      <c r="G16" s="279" t="s">
-        <v>623</v>
+        <v>619</v>
+      </c>
+      <c r="G16" s="268" t="s">
+        <v>622</v>
       </c>
       <c r="H16" s="52"/>
-      <c r="I16" s="289"/>
+      <c r="I16" s="278"/>
     </row>
     <row r="17" spans="1:9" ht="63">
       <c r="A17" s="89" t="s">
         <v>402</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C17" s="90" t="s">
         <v>505</v>
@@ -11359,17 +11457,17 @@
       <c r="E17" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="F17" s="195" t="s">
+      <c r="F17" s="194" t="s">
         <v>553</v>
       </c>
-      <c r="G17" s="279" t="s">
-        <v>622</v>
-      </c>
-      <c r="H17" s="206" t="s">
+      <c r="G17" s="268" t="s">
+        <v>621</v>
+      </c>
+      <c r="H17" s="205" t="s">
         <v>404</v>
       </c>
-      <c r="I17" s="290" t="s">
-        <v>633</v>
+      <c r="I17" s="279" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="27" thickBot="1">
@@ -11377,10 +11475,10 @@
         <v>402</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D18" s="98"/>
       <c r="E18" s="69" t="s">
@@ -11389,14 +11487,14 @@
       <c r="F18" s="59" t="s">
         <v>440</v>
       </c>
-      <c r="G18" s="280" t="s">
-        <v>627</v>
+      <c r="G18" s="269" t="s">
+        <v>626</v>
       </c>
       <c r="H18" s="165" t="s">
-        <v>614</v>
-      </c>
-      <c r="I18" s="291" t="s">
-        <v>624</v>
+        <v>613</v>
+      </c>
+      <c r="I18" s="280" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="45">
@@ -11412,35 +11510,35 @@
       <c r="F19" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="G19" s="277" t="s">
-        <v>731</v>
-      </c>
-      <c r="H19" s="208"/>
-      <c r="I19" s="287"/>
+      <c r="G19" s="266" t="s">
+        <v>729</v>
+      </c>
+      <c r="H19" s="207"/>
+      <c r="I19" s="276"/>
     </row>
     <row r="20" spans="1:9" ht="84">
-      <c r="A20" s="203" t="s">
+      <c r="A20" s="202" t="s">
         <v>402</v>
       </c>
-      <c r="B20" s="204" t="s">
+      <c r="B20" s="203" t="s">
         <v>399</v>
       </c>
-      <c r="C20" s="204"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="195" t="s">
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="194" t="s">
         <v>224</v>
       </c>
-      <c r="F20" s="195" t="s">
+      <c r="F20" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="278" t="s">
-        <v>630</v>
-      </c>
-      <c r="H20" s="206" t="s">
+      <c r="G20" s="267" t="s">
+        <v>629</v>
+      </c>
+      <c r="H20" s="205" t="s">
         <v>404</v>
       </c>
-      <c r="I20" s="292" t="s">
-        <v>628</v>
+      <c r="I20" s="281" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="31" thickBot="1">
@@ -11458,11 +11556,11 @@
       <c r="F21" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="G21" s="279" t="s">
-        <v>631</v>
+      <c r="G21" s="268" t="s">
+        <v>630</v>
       </c>
       <c r="H21" s="52"/>
-      <c r="I21" s="289"/>
+      <c r="I21" s="278"/>
     </row>
     <row r="22" spans="1:9" ht="27" thickBot="1">
       <c r="A22" s="89" t="s">
@@ -11481,11 +11579,11 @@
       <c r="F22" s="51" t="s">
         <v>496</v>
       </c>
-      <c r="G22" s="279" t="s">
-        <v>632</v>
+      <c r="G22" s="268" t="s">
+        <v>631</v>
       </c>
       <c r="H22" s="67"/>
-      <c r="I22" s="289"/>
+      <c r="I22" s="278"/>
     </row>
     <row r="23" spans="1:9" ht="45">
       <c r="A23" s="89" t="s">
@@ -11503,17 +11601,17 @@
       <c r="E23" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="F23" s="195" t="s">
+      <c r="F23" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="279" t="s">
-        <v>612</v>
+      <c r="G23" s="268" t="s">
+        <v>611</v>
       </c>
       <c r="H23" s="67" t="s">
         <v>404</v>
       </c>
-      <c r="I23" s="289" t="s">
-        <v>610</v>
+      <c r="I23" s="278" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="26">
@@ -11535,14 +11633,14 @@
       <c r="F24" s="51" t="s">
         <v>440</v>
       </c>
-      <c r="G24" s="279" t="s">
-        <v>718</v>
+      <c r="G24" s="268" t="s">
+        <v>716</v>
       </c>
       <c r="H24" s="52" t="s">
+        <v>613</v>
+      </c>
+      <c r="I24" s="278" t="s">
         <v>614</v>
-      </c>
-      <c r="I24" s="289" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="26">
@@ -11564,12 +11662,12 @@
       <c r="F25" s="51" t="s">
         <v>440</v>
       </c>
-      <c r="G25" s="279" t="s">
-        <v>611</v>
+      <c r="G25" s="268" t="s">
+        <v>610</v>
       </c>
       <c r="H25" s="52"/>
-      <c r="I25" s="289" t="s">
-        <v>616</v>
+      <c r="I25" s="278" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="31" thickBot="1">
@@ -11589,14 +11687,14 @@
       <c r="F26" s="59" t="s">
         <v>440</v>
       </c>
-      <c r="G26" s="280" t="s">
-        <v>618</v>
+      <c r="G26" s="269" t="s">
+        <v>617</v>
       </c>
       <c r="H26" s="165" t="s">
-        <v>614</v>
-      </c>
-      <c r="I26" s="291" t="s">
-        <v>617</v>
+        <v>613</v>
+      </c>
+      <c r="I26" s="280" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="196" thickBot="1">
@@ -11613,10 +11711,10 @@
         <v>38</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="286"/>
+      <c r="I27" s="275"/>
     </row>
     <row r="28" spans="1:9" ht="63">
       <c r="A28" s="5" t="s">
@@ -11633,13 +11731,13 @@
       <c r="F28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="281" t="s">
-        <v>725</v>
+      <c r="G28" s="270" t="s">
+        <v>723</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="293" t="s">
+      <c r="I28" s="282" t="s">
         <v>169</v>
       </c>
     </row>
@@ -11664,7 +11762,7 @@
       <c r="H29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="286" t="s">
+      <c r="I29" s="275" t="s">
         <v>43</v>
       </c>
     </row>
@@ -11682,10 +11780,10 @@
         <v>46</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="286"/>
+      <c r="I30" s="275"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="5" t="s">
@@ -11706,7 +11804,7 @@
         <v>48</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="286"/>
+      <c r="I31" s="275"/>
     </row>
     <row r="32" spans="1:9" ht="45">
       <c r="A32" s="5" t="s">
@@ -11731,7 +11829,7 @@
       <c r="H32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="286" t="s">
+      <c r="I32" s="275" t="s">
         <v>51</v>
       </c>
     </row>
@@ -11758,7 +11856,7 @@
       <c r="H33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="286" t="s">
+      <c r="I33" s="275" t="s">
         <v>53</v>
       </c>
     </row>
@@ -11785,7 +11883,7 @@
       <c r="H34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="286" t="s">
+      <c r="I34" s="275" t="s">
         <v>54</v>
       </c>
     </row>
@@ -11808,7 +11906,7 @@
         <v>176</v>
       </c>
       <c r="H35" s="6"/>
-      <c r="I35" s="286"/>
+      <c r="I35" s="275"/>
     </row>
     <row r="36" spans="1:9" ht="45">
       <c r="A36" s="5" t="s">
@@ -11824,10 +11922,10 @@
         <v>46</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="286"/>
+      <c r="I36" s="275"/>
     </row>
     <row r="37" spans="1:9" ht="30">
       <c r="A37" s="5" t="s">
@@ -11844,11 +11942,11 @@
       <c r="F37" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="282" t="s">
+      <c r="G37" s="271" t="s">
         <v>57</v>
       </c>
       <c r="H37" s="6"/>
-      <c r="I37" s="286"/>
+      <c r="I37" s="275"/>
     </row>
     <row r="38" spans="1:9" ht="45">
       <c r="A38" s="5" t="s">
@@ -11873,7 +11971,7 @@
       <c r="H38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="286" t="s">
+      <c r="I38" s="275" t="s">
         <v>58</v>
       </c>
     </row>
@@ -11900,7 +11998,7 @@
       <c r="H39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="286" t="s">
+      <c r="I39" s="275" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11927,7 +12025,7 @@
       <c r="H40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="286" t="s">
+      <c r="I40" s="275" t="s">
         <v>60</v>
       </c>
     </row>
@@ -11950,7 +12048,7 @@
         <v>61</v>
       </c>
       <c r="H41" s="6"/>
-      <c r="I41" s="286"/>
+      <c r="I41" s="275"/>
     </row>
     <row r="42" spans="1:9" ht="105">
       <c r="A42" s="5" t="s">
@@ -11971,7 +12069,7 @@
       <c r="H42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="286" t="s">
+      <c r="I42" s="275" t="s">
         <v>63</v>
       </c>
     </row>
@@ -11989,12 +12087,12 @@
         <v>28</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="286" t="s">
+      <c r="I43" s="275" t="s">
         <v>65</v>
       </c>
     </row>
@@ -12012,12 +12110,12 @@
         <v>28</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="286" t="s">
+      <c r="I44" s="275" t="s">
         <v>67</v>
       </c>
     </row>
@@ -12038,7 +12136,7 @@
         <v>68</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="286"/>
+      <c r="I45" s="275"/>
     </row>
     <row r="46" spans="1:9" ht="75">
       <c r="A46" s="5" t="s">
@@ -12059,7 +12157,7 @@
         <v>180</v>
       </c>
       <c r="H46" s="6"/>
-      <c r="I46" s="286"/>
+      <c r="I46" s="275"/>
     </row>
     <row r="47" spans="1:9" ht="165">
       <c r="A47" s="5" t="s">
@@ -12084,7 +12182,7 @@
       <c r="H47" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="286" t="s">
+      <c r="I47" s="275" t="s">
         <v>69</v>
       </c>
     </row>
@@ -12111,7 +12209,7 @@
       <c r="H48" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I48" s="286" t="s">
+      <c r="I48" s="275" t="s">
         <v>71</v>
       </c>
     </row>
@@ -12138,7 +12236,7 @@
       <c r="H49" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="286" t="s">
+      <c r="I49" s="275" t="s">
         <v>72</v>
       </c>
     </row>
@@ -12163,7 +12261,7 @@
       <c r="H50" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="286" t="s">
+      <c r="I50" s="275" t="s">
         <v>74</v>
       </c>
     </row>
@@ -12174,20 +12272,20 @@
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="314" t="s">
+      <c r="E51" s="303" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>473</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="286" t="s">
-        <v>745</v>
+      <c r="I51" s="275" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="210">
@@ -12195,16 +12293,16 @@
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="315"/>
+      <c r="E52" s="304"/>
       <c r="F52" s="6"/>
       <c r="G52" s="21" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="286" t="s">
-        <v>865</v>
+      <c r="I52" s="275" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="90">
@@ -12226,7 +12324,7 @@
       <c r="H53" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I53" s="286" t="s">
+      <c r="I53" s="275" t="s">
         <v>77</v>
       </c>
     </row>
@@ -12238,12 +12336,12 @@
       <c r="E54" s="14"/>
       <c r="F54" s="6"/>
       <c r="G54" s="21" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="286" t="s">
+      <c r="I54" s="275" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12264,7 +12362,7 @@
         <v>183</v>
       </c>
       <c r="H55" s="6"/>
-      <c r="I55" s="286"/>
+      <c r="I55" s="275"/>
     </row>
     <row r="56" spans="1:9" ht="60">
       <c r="A56" s="5" t="s">
@@ -12285,7 +12383,7 @@
       <c r="H56" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I56" s="286" t="s">
+      <c r="I56" s="275" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12308,7 +12406,7 @@
       <c r="H57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="286" t="s">
+      <c r="I57" s="275" t="s">
         <v>86</v>
       </c>
     </row>
@@ -12333,7 +12431,7 @@
       <c r="H58" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="286" t="s">
+      <c r="I58" s="275" t="s">
         <v>89</v>
       </c>
     </row>
@@ -12358,7 +12456,7 @@
       <c r="H59" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="286" t="s">
+      <c r="I59" s="275" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12383,7 +12481,7 @@
       <c r="H60" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="286" t="s">
+      <c r="I60" s="275" t="s">
         <v>93</v>
       </c>
     </row>
@@ -12408,7 +12506,7 @@
       <c r="H61" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="286" t="s">
+      <c r="I61" s="275" t="s">
         <v>94</v>
       </c>
     </row>
@@ -12433,7 +12531,7 @@
       <c r="H62" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I62" s="286" t="s">
+      <c r="I62" s="275" t="s">
         <v>95</v>
       </c>
     </row>
@@ -12454,7 +12552,7 @@
         <v>98</v>
       </c>
       <c r="H63" s="6"/>
-      <c r="I63" s="286"/>
+      <c r="I63" s="275"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="5" t="s">
@@ -12475,7 +12573,7 @@
         <v>100</v>
       </c>
       <c r="H64" s="6"/>
-      <c r="I64" s="286"/>
+      <c r="I64" s="275"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="5" t="s">
@@ -12496,7 +12594,7 @@
         <v>102</v>
       </c>
       <c r="H65" s="6"/>
-      <c r="I65" s="286"/>
+      <c r="I65" s="275"/>
     </row>
     <row r="66" spans="1:9" ht="30">
       <c r="A66" s="5" t="s">
@@ -12515,7 +12613,7 @@
         <v>105</v>
       </c>
       <c r="H66" s="6"/>
-      <c r="I66" s="286"/>
+      <c r="I66" s="275"/>
     </row>
     <row r="67" spans="1:9" ht="30">
       <c r="A67" s="5" t="s">
@@ -12536,7 +12634,7 @@
         <v>190</v>
       </c>
       <c r="H67" s="6"/>
-      <c r="I67" s="286"/>
+      <c r="I67" s="275"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="5" t="s">
@@ -12561,7 +12659,7 @@
       <c r="H68" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="286" t="s">
+      <c r="I68" s="275" t="s">
         <v>89</v>
       </c>
     </row>
@@ -12588,7 +12686,7 @@
       <c r="H69" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="286" t="s">
+      <c r="I69" s="275" t="s">
         <v>93</v>
       </c>
     </row>
@@ -12615,7 +12713,7 @@
       <c r="H70" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="286" t="s">
+      <c r="I70" s="275" t="s">
         <v>94</v>
       </c>
     </row>
@@ -12642,7 +12740,7 @@
       <c r="H71" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I71" s="286" t="s">
+      <c r="I71" s="275" t="s">
         <v>95</v>
       </c>
     </row>
@@ -12665,7 +12763,7 @@
         <v>171</v>
       </c>
       <c r="H72" s="6"/>
-      <c r="I72" s="286"/>
+      <c r="I72" s="275"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="5" t="s">
@@ -12690,7 +12788,7 @@
       <c r="H73" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I73" s="286" t="s">
+      <c r="I73" s="275" t="s">
         <v>110</v>
       </c>
     </row>
@@ -12717,7 +12815,7 @@
       <c r="H74" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I74" s="286" t="s">
+      <c r="I74" s="275" t="s">
         <v>93</v>
       </c>
     </row>
@@ -12744,7 +12842,7 @@
       <c r="H75" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I75" s="286" t="s">
+      <c r="I75" s="275" t="s">
         <v>94</v>
       </c>
     </row>
@@ -12771,7 +12869,7 @@
       <c r="H76" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I76" s="286" t="s">
+      <c r="I76" s="275" t="s">
         <v>95</v>
       </c>
     </row>
@@ -12794,7 +12892,7 @@
       <c r="H77" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I77" s="286" t="s">
+      <c r="I77" s="275" t="s">
         <v>113</v>
       </c>
     </row>
@@ -12815,7 +12913,7 @@
         <v>115</v>
       </c>
       <c r="H78" s="6"/>
-      <c r="I78" s="286"/>
+      <c r="I78" s="275"/>
     </row>
     <row r="79" spans="1:9" ht="60">
       <c r="A79" s="5" t="s">
@@ -12836,7 +12934,7 @@
       <c r="H79" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I79" s="286" t="s">
+      <c r="I79" s="275" t="s">
         <v>117</v>
       </c>
     </row>
@@ -12859,7 +12957,7 @@
       <c r="H80" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I80" s="286" t="s">
+      <c r="I80" s="275" t="s">
         <v>119</v>
       </c>
     </row>
@@ -12880,7 +12978,7 @@
         <v>121</v>
       </c>
       <c r="H81" s="6"/>
-      <c r="I81" s="286"/>
+      <c r="I81" s="275"/>
     </row>
     <row r="82" spans="1:9" ht="30">
       <c r="A82" s="5" t="s">
@@ -12899,7 +12997,7 @@
         <v>124</v>
       </c>
       <c r="H82" s="6"/>
-      <c r="I82" s="286"/>
+      <c r="I82" s="275"/>
     </row>
     <row r="83" spans="1:9" ht="30">
       <c r="A83" s="5" t="s">
@@ -12922,7 +13020,7 @@
       <c r="H83" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I83" s="286" t="s">
+      <c r="I83" s="275" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12945,7 +13043,7 @@
         <v>131</v>
       </c>
       <c r="H84" s="6"/>
-      <c r="I84" s="286"/>
+      <c r="I84" s="275"/>
     </row>
     <row r="85" spans="1:9" ht="30">
       <c r="A85" s="5" t="s">
@@ -12966,7 +13064,7 @@
         <v>133</v>
       </c>
       <c r="H85" s="6"/>
-      <c r="I85" s="286"/>
+      <c r="I85" s="275"/>
     </row>
     <row r="86" spans="1:9" ht="30">
       <c r="A86" s="5" t="s">
@@ -12985,7 +13083,7 @@
         <v>195</v>
       </c>
       <c r="H86" s="6"/>
-      <c r="I86" s="286"/>
+      <c r="I86" s="275"/>
     </row>
     <row r="87" spans="1:9" ht="225">
       <c r="A87" s="5" t="s">
@@ -13006,7 +13104,7 @@
         <v>196</v>
       </c>
       <c r="H87" s="6"/>
-      <c r="I87" s="286"/>
+      <c r="I87" s="275"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="5" t="s">
@@ -13029,7 +13127,7 @@
         <v>197</v>
       </c>
       <c r="H88" s="6"/>
-      <c r="I88" s="286"/>
+      <c r="I88" s="275"/>
     </row>
     <row r="89" spans="1:9" ht="195">
       <c r="A89" s="5" t="s">
@@ -13056,7 +13154,7 @@
       <c r="H89" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I89" s="286" t="s">
+      <c r="I89" s="275" t="s">
         <v>69</v>
       </c>
     </row>
@@ -13085,7 +13183,7 @@
       <c r="H90" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I90" s="286" t="s">
+      <c r="I90" s="275" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13114,7 +13212,7 @@
       <c r="H91" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I91" s="286" t="s">
+      <c r="I91" s="275" t="s">
         <v>141</v>
       </c>
     </row>
@@ -13141,7 +13239,7 @@
       <c r="H92" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I92" s="286" t="s">
+      <c r="I92" s="275" t="s">
         <v>141</v>
       </c>
     </row>
@@ -13164,7 +13262,7 @@
         <v>143</v>
       </c>
       <c r="H93" s="6"/>
-      <c r="I93" s="286"/>
+      <c r="I93" s="275"/>
     </row>
     <row r="94" spans="1:9" ht="30">
       <c r="A94" s="5" t="s">
@@ -13187,7 +13285,7 @@
         <v>145</v>
       </c>
       <c r="H94" s="6"/>
-      <c r="I94" s="286"/>
+      <c r="I94" s="275"/>
     </row>
     <row r="95" spans="1:9" ht="45">
       <c r="A95" s="5" t="s">
@@ -13208,14 +13306,14 @@
       <c r="F95" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G95" s="283" t="s">
+      <c r="G95" s="272" t="s">
         <v>147</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I95" s="286" t="s">
-        <v>737</v>
+      <c r="I95" s="275" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="30">
@@ -13237,13 +13335,13 @@
       <c r="F96" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G96" s="283" t="s">
+      <c r="G96" s="272" t="s">
         <v>200</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I96" s="286" t="s">
+      <c r="I96" s="275" t="s">
         <v>149</v>
       </c>
     </row>
@@ -13266,13 +13364,13 @@
       <c r="F97" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G97" s="283" t="s">
+      <c r="G97" s="272" t="s">
         <v>171</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I97" s="286" t="s">
+      <c r="I97" s="275" t="s">
         <v>151</v>
       </c>
     </row>
@@ -13293,13 +13391,13 @@
       <c r="F98" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G98" s="283" t="s">
+      <c r="G98" s="272" t="s">
         <v>201</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I98" s="286" t="s">
+      <c r="I98" s="275" t="s">
         <v>152</v>
       </c>
     </row>
@@ -13324,7 +13422,7 @@
       <c r="H99" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I99" s="286" t="s">
+      <c r="I99" s="275" t="s">
         <v>155</v>
       </c>
     </row>
@@ -13349,7 +13447,7 @@
       <c r="H100" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I100" s="286" t="s">
+      <c r="I100" s="275" t="s">
         <v>158</v>
       </c>
     </row>
@@ -13374,7 +13472,7 @@
       <c r="H101" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I101" s="286" t="s">
+      <c r="I101" s="275" t="s">
         <v>160</v>
       </c>
     </row>
@@ -13397,7 +13495,7 @@
         <v>162</v>
       </c>
       <c r="H102" s="6"/>
-      <c r="I102" s="286"/>
+      <c r="I102" s="275"/>
     </row>
     <row r="103" spans="1:9" ht="30">
       <c r="A103" s="5" t="s">
@@ -13420,7 +13518,7 @@
         <v>163</v>
       </c>
       <c r="H103" s="6"/>
-      <c r="I103" s="286"/>
+      <c r="I103" s="275"/>
     </row>
     <row r="104" spans="1:9" ht="30">
       <c r="A104" s="5" t="s">
@@ -13447,8 +13545,8 @@
       <c r="H104" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I104" s="286" t="s">
-        <v>736</v>
+      <c r="I104" s="275" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="30">
@@ -13470,13 +13568,13 @@
       <c r="F105" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G105" s="283" t="s">
+      <c r="G105" s="272" t="s">
         <v>204</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I105" s="286" t="s">
+      <c r="I105" s="275" t="s">
         <v>164</v>
       </c>
     </row>
@@ -13499,13 +13597,13 @@
       <c r="F106" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G106" s="283" t="s">
+      <c r="G106" s="272" t="s">
         <v>205</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I106" s="286" t="s">
+      <c r="I106" s="275" t="s">
         <v>165</v>
       </c>
     </row>
@@ -13526,13 +13624,13 @@
       <c r="F107" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G107" s="283" t="s">
+      <c r="G107" s="272" t="s">
         <v>206</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I107" s="286" t="s">
+      <c r="I107" s="275" t="s">
         <v>166</v>
       </c>
     </row>
@@ -13555,7 +13653,7 @@
         <v>167</v>
       </c>
       <c r="H108" s="6"/>
-      <c r="I108" s="286"/>
+      <c r="I108" s="275"/>
     </row>
     <row r="109" spans="1:9" ht="30">
       <c r="A109" s="5" t="s">
@@ -13580,7 +13678,7 @@
       <c r="H109" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I109" s="286" t="s">
+      <c r="I109" s="275" t="s">
         <v>168</v>
       </c>
     </row>
@@ -13605,7 +13703,7 @@
         <v>131</v>
       </c>
       <c r="H110" s="6"/>
-      <c r="I110" s="286"/>
+      <c r="I110" s="275"/>
     </row>
     <row r="111" spans="1:9" ht="31" thickBot="1">
       <c r="A111" s="15" t="s">
@@ -13624,11 +13722,11 @@
       <c r="F111" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G111" s="284" t="s">
+      <c r="G111" s="273" t="s">
         <v>133</v>
       </c>
       <c r="H111" s="16"/>
-      <c r="I111" s="294"/>
+      <c r="I111" s="283"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13666,17 +13764,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="333" t="s">
-        <v>723</v>
-      </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="333"/>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="333"/>
-      <c r="G1" s="333"/>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
+      <c r="A1" s="322" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="G1" s="322"/>
+      <c r="H1" s="322"/>
+      <c r="I1" s="322"/>
     </row>
     <row r="2" spans="1:12" ht="75">
       <c r="A2" s="1" t="s">
@@ -13719,7 +13817,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>11</v>
@@ -13788,13 +13886,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="I6" s="286" t="s">
-        <v>739</v>
+        <v>720</v>
+      </c>
+      <c r="I6" s="275" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -13842,7 +13940,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30">
@@ -13890,13 +13988,13 @@
         <v>25</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30">
@@ -13992,55 +14090,55 @@
         <v>231</v>
       </c>
       <c r="F15" s="75"/>
-      <c r="G15" s="309" t="s">
-        <v>726</v>
+      <c r="G15" s="298" t="s">
+        <v>724</v>
       </c>
       <c r="H15" s="52"/>
-      <c r="I15" s="289"/>
+      <c r="I15" s="278"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="203" t="s">
+      <c r="A16" s="202" t="s">
         <v>401</v>
       </c>
-      <c r="B16" s="295"/>
-      <c r="C16" s="295"/>
-      <c r="D16" s="295"/>
-      <c r="E16" s="300" t="s">
+      <c r="B16" s="284"/>
+      <c r="C16" s="284"/>
+      <c r="D16" s="284"/>
+      <c r="E16" s="289" t="s">
         <v>217</v>
       </c>
-      <c r="F16" s="296" t="s">
+      <c r="F16" s="285" t="s">
         <v>278</v>
       </c>
-      <c r="G16" s="297"/>
-      <c r="H16" s="298"/>
-      <c r="I16" s="299"/>
+      <c r="G16" s="286"/>
+      <c r="H16" s="287"/>
+      <c r="I16" s="288"/>
       <c r="L16" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="133" customHeight="1">
-      <c r="A17" s="203" t="s">
+      <c r="A17" s="202" t="s">
         <v>402</v>
       </c>
-      <c r="B17" s="204" t="s">
+      <c r="B17" s="203" t="s">
         <v>399</v>
       </c>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="300" t="s">
+      <c r="C17" s="203"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="289" t="s">
         <v>224</v>
       </c>
-      <c r="F17" s="195" t="s">
+      <c r="F17" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="278" t="s">
-        <v>730</v>
-      </c>
-      <c r="H17" s="206" t="s">
+      <c r="G17" s="267" t="s">
+        <v>728</v>
+      </c>
+      <c r="H17" s="205" t="s">
         <v>404</v>
       </c>
-      <c r="I17" s="288" t="s">
-        <v>629</v>
+      <c r="I17" s="277" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="35" customHeight="1">
@@ -14048,7 +14146,7 @@
         <v>402</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C18" s="90"/>
       <c r="D18" s="90"/>
@@ -14056,10 +14154,10 @@
         <v>10</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="58"/>
@@ -14069,7 +14167,7 @@
         <v>402</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C19" s="90" t="s">
         <v>505</v>
@@ -14078,17 +14176,17 @@
       <c r="E19" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="F19" s="195" t="s">
+      <c r="F19" s="194" t="s">
         <v>553</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>622</v>
-      </c>
-      <c r="H19" s="206" t="s">
+        <v>621</v>
+      </c>
+      <c r="H19" s="205" t="s">
         <v>404</v>
       </c>
-      <c r="I19" s="207" t="s">
-        <v>625</v>
+      <c r="I19" s="206" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="27" thickBot="1">
@@ -14096,10 +14194,10 @@
         <v>402</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D20" s="98"/>
       <c r="E20" s="69" t="s">
@@ -14109,13 +14207,13 @@
         <v>440</v>
       </c>
       <c r="G20" s="60" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H20" s="165" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I20" s="61" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="45">
@@ -14125,41 +14223,41 @@
       <c r="B21" s="94"/>
       <c r="C21" s="94"/>
       <c r="D21" s="94"/>
-      <c r="E21" s="301" t="s">
+      <c r="E21" s="290" t="s">
         <v>217</v>
       </c>
       <c r="F21" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="G21" s="277" t="s">
-        <v>731</v>
-      </c>
-      <c r="H21" s="208"/>
+      <c r="G21" s="266" t="s">
+        <v>729</v>
+      </c>
+      <c r="H21" s="207"/>
       <c r="I21" s="68"/>
     </row>
     <row r="22" spans="1:9" ht="84">
-      <c r="A22" s="203" t="s">
+      <c r="A22" s="202" t="s">
         <v>402</v>
       </c>
-      <c r="B22" s="204" t="s">
+      <c r="B22" s="203" t="s">
         <v>399</v>
       </c>
-      <c r="C22" s="204"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="302" t="s">
+      <c r="C22" s="203"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="291" t="s">
         <v>224</v>
       </c>
-      <c r="F22" s="195" t="s">
+      <c r="F22" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="205" t="s">
-        <v>630</v>
-      </c>
-      <c r="H22" s="206" t="s">
+      <c r="G22" s="204" t="s">
+        <v>629</v>
+      </c>
+      <c r="H22" s="205" t="s">
         <v>404</v>
       </c>
-      <c r="I22" s="209" t="s">
-        <v>628</v>
+      <c r="I22" s="208" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="31" thickBot="1">
@@ -14171,14 +14269,14 @@
       </c>
       <c r="C23" s="90"/>
       <c r="D23" s="90"/>
-      <c r="E23" s="303" t="s">
+      <c r="E23" s="292" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="51" t="s">
         <v>232</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H23" s="52"/>
       <c r="I23" s="58"/>
@@ -14194,14 +14292,14 @@
         <v>491</v>
       </c>
       <c r="D24" s="90"/>
-      <c r="E24" s="303" t="s">
+      <c r="E24" s="292" t="s">
         <v>279</v>
       </c>
       <c r="F24" s="51" t="s">
         <v>496</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H24" s="67"/>
       <c r="I24" s="58"/>
@@ -14219,20 +14317,20 @@
       <c r="D25" s="90" t="s">
         <v>505</v>
       </c>
-      <c r="E25" s="303" t="s">
+      <c r="E25" s="292" t="s">
         <v>217</v>
       </c>
-      <c r="F25" s="195" t="s">
+      <c r="F25" s="194" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H25" s="67" t="s">
         <v>404</v>
       </c>
       <c r="I25" s="58" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="26">
@@ -14248,20 +14346,20 @@
       <c r="D26" s="90" t="s">
         <v>412</v>
       </c>
-      <c r="E26" s="303" t="s">
+      <c r="E26" s="292" t="s">
         <v>217</v>
       </c>
       <c r="F26" s="51" t="s">
         <v>440</v>
       </c>
       <c r="G26" s="50" t="s">
+        <v>612</v>
+      </c>
+      <c r="H26" s="52" t="s">
         <v>613</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="I26" s="58" t="s">
         <v>614</v>
-      </c>
-      <c r="I26" s="58" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="26">
@@ -14277,18 +14375,18 @@
       <c r="D27" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="E27" s="303" t="s">
+      <c r="E27" s="292" t="s">
         <v>217</v>
       </c>
       <c r="F27" s="51" t="s">
         <v>440</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H27" s="52"/>
       <c r="I27" s="58" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="31" thickBot="1">
@@ -14302,20 +14400,20 @@
         <v>419</v>
       </c>
       <c r="D28" s="98"/>
-      <c r="E28" s="304" t="s">
+      <c r="E28" s="293" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="59" t="s">
         <v>440</v>
       </c>
       <c r="G28" s="60" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H28" s="165" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I28" s="61" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="196" thickBot="1">
@@ -14332,7 +14430,7 @@
         <v>38</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
@@ -14352,8 +14450,8 @@
       <c r="F30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="281" t="s">
-        <v>725</v>
+      <c r="G30" s="270" t="s">
+        <v>723</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>11</v>
@@ -14401,7 +14499,7 @@
         <v>46</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
@@ -14685,7 +14783,7 @@
         <v>28</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>17</v>
@@ -14752,7 +14850,7 @@
         <v>22</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="9"/>
@@ -14775,13 +14873,13 @@
         <v>25</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -14854,7 +14952,7 @@
         <v>42</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>17</v>
@@ -14900,13 +14998,13 @@
         <v>473</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="210">
@@ -14917,13 +15015,13 @@
       <c r="E54" s="14"/>
       <c r="F54" s="6"/>
       <c r="G54" s="21" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="286" t="s">
-        <v>865</v>
+      <c r="I54" s="275" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="90">
@@ -14980,11 +15078,11 @@
         <v>80</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="9"/>
-      <c r="R57" s="210"/>
+      <c r="R57" s="209"/>
     </row>
     <row r="58" spans="1:18" ht="60">
       <c r="A58" s="5" t="s">
@@ -15532,7 +15630,7 @@
         <v>80</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="9"/>
@@ -15647,50 +15745,50 @@
       <c r="I85" s="30"/>
     </row>
     <row r="86" spans="1:9" ht="28">
-      <c r="A86" s="338"/>
-      <c r="B86" s="334" t="s">
+      <c r="A86" s="327"/>
+      <c r="B86" s="323" t="s">
         <v>303</v>
       </c>
-      <c r="C86" s="334"/>
-      <c r="D86" s="334"/>
-      <c r="E86" s="334" t="s">
+      <c r="C86" s="323"/>
+      <c r="D86" s="323"/>
+      <c r="E86" s="323" t="s">
         <v>45</v>
       </c>
-      <c r="F86" s="334" t="s">
+      <c r="F86" s="323" t="s">
         <v>46</v>
       </c>
-      <c r="G86" s="334" t="s">
+      <c r="G86" s="323" t="s">
         <v>304</v>
       </c>
-      <c r="H86" s="335" t="s">
+      <c r="H86" s="324" t="s">
         <v>256</v>
       </c>
       <c r="I86" s="30" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="338"/>
-      <c r="B87" s="334"/>
-      <c r="C87" s="334"/>
-      <c r="D87" s="334"/>
-      <c r="E87" s="334"/>
-      <c r="F87" s="334"/>
-      <c r="G87" s="334"/>
-      <c r="H87" s="336"/>
+      <c r="A87" s="327"/>
+      <c r="B87" s="323"/>
+      <c r="C87" s="323"/>
+      <c r="D87" s="323"/>
+      <c r="E87" s="323"/>
+      <c r="F87" s="323"/>
+      <c r="G87" s="323"/>
+      <c r="H87" s="325"/>
       <c r="I87" s="30" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="338"/>
-      <c r="B88" s="334"/>
-      <c r="C88" s="334"/>
-      <c r="D88" s="334"/>
-      <c r="E88" s="334"/>
-      <c r="F88" s="334"/>
-      <c r="G88" s="334"/>
-      <c r="H88" s="337"/>
+      <c r="A88" s="327"/>
+      <c r="B88" s="323"/>
+      <c r="C88" s="323"/>
+      <c r="D88" s="323"/>
+      <c r="E88" s="323"/>
+      <c r="F88" s="323"/>
+      <c r="G88" s="323"/>
+      <c r="H88" s="326"/>
       <c r="I88" s="30" t="s">
         <v>247</v>
       </c>
@@ -15772,7 +15870,7 @@
       </c>
       <c r="H92" s="29"/>
       <c r="I92" s="30" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -15913,18 +16011,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" customFormat="1" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="333" t="s">
-        <v>723</v>
-      </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="333"/>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="333"/>
-      <c r="G1" s="333"/>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="339"/>
+      <c r="A1" s="322" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="G1" s="322"/>
+      <c r="H1" s="322"/>
+      <c r="I1" s="322"/>
+      <c r="J1" s="328"/>
     </row>
     <row r="2" spans="1:10" ht="76" thickBot="1">
       <c r="A2" s="106" t="s">
@@ -16041,13 +16139,13 @@
         <v>20</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="J6" s="286" t="s">
-        <v>753</v>
+        <v>720</v>
+      </c>
+      <c r="J6" s="275" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="135" customFormat="1">
@@ -16091,13 +16189,13 @@
         <v>25</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I8" s="43" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="153" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="135" customFormat="1" ht="31" thickBot="1">
@@ -16198,31 +16296,31 @@
         <v>35</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>606</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" customFormat="1" ht="31" thickBot="1">
-      <c r="A14" s="196" t="s">
+      <c r="A14" s="195" t="s">
         <v>403</v>
       </c>
-      <c r="B14" s="197"/>
-      <c r="C14" s="197"/>
-      <c r="D14" s="197"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="198" t="s">
+      <c r="B14" s="196"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="197" t="s">
         <v>231</v>
       </c>
-      <c r="G14" s="199"/>
-      <c r="H14" s="200" t="s">
-        <v>726</v>
-      </c>
-      <c r="I14" s="201"/>
-      <c r="J14" s="202"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="199" t="s">
+        <v>724</v>
+      </c>
+      <c r="I14" s="200"/>
+      <c r="J14" s="201"/>
     </row>
     <row r="15" spans="1:10" customFormat="1">
       <c r="A15" s="87" t="s">
@@ -16238,34 +16336,34 @@
       <c r="G15" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="H15" s="297"/>
-      <c r="I15" s="298"/>
-      <c r="J15" s="299"/>
+      <c r="H15" s="286"/>
+      <c r="I15" s="287"/>
+      <c r="J15" s="288"/>
     </row>
     <row r="16" spans="1:10" customFormat="1" ht="105">
-      <c r="A16" s="203" t="s">
+      <c r="A16" s="202" t="s">
         <v>402</v>
       </c>
-      <c r="B16" s="204" t="s">
+      <c r="B16" s="203" t="s">
         <v>399</v>
       </c>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="300" t="s">
+      <c r="C16" s="203"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="289" t="s">
         <v>224</v>
       </c>
-      <c r="G16" s="195" t="s">
+      <c r="G16" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="278" t="s">
-        <v>730</v>
-      </c>
-      <c r="I16" s="206" t="s">
+      <c r="H16" s="267" t="s">
+        <v>728</v>
+      </c>
+      <c r="I16" s="205" t="s">
         <v>404</v>
       </c>
-      <c r="J16" s="288" t="s">
-        <v>629</v>
+      <c r="J16" s="277" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="17" spans="1:10" customFormat="1" ht="35" customHeight="1">
@@ -16273,7 +16371,7 @@
         <v>402</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C17" s="90"/>
       <c r="D17" s="90"/>
@@ -16282,10 +16380,10 @@
         <v>10</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I17" s="52"/>
       <c r="J17" s="58"/>
@@ -16295,7 +16393,7 @@
         <v>402</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C18" s="90" t="s">
         <v>505</v>
@@ -16305,17 +16403,17 @@
       <c r="F18" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="G18" s="195" t="s">
+      <c r="G18" s="194" t="s">
         <v>553</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>622</v>
-      </c>
-      <c r="I18" s="206" t="s">
+        <v>621</v>
+      </c>
+      <c r="I18" s="205" t="s">
         <v>404</v>
       </c>
-      <c r="J18" s="207" t="s">
-        <v>625</v>
+      <c r="J18" s="206" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="19" spans="1:10" customFormat="1" ht="21" thickBot="1">
@@ -16323,10 +16421,10 @@
         <v>402</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D19" s="98"/>
       <c r="E19" s="98"/>
@@ -16337,13 +16435,13 @@
         <v>440</v>
       </c>
       <c r="H19" s="60" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I19" s="165" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J19" s="61" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="20" spans="1:10" customFormat="1" ht="45">
@@ -16354,42 +16452,42 @@
       <c r="C20" s="94"/>
       <c r="D20" s="94"/>
       <c r="E20" s="94"/>
-      <c r="F20" s="301" t="s">
+      <c r="F20" s="290" t="s">
         <v>217</v>
       </c>
       <c r="G20" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="H20" s="277" t="s">
-        <v>731</v>
-      </c>
-      <c r="I20" s="208"/>
+      <c r="H20" s="266" t="s">
+        <v>729</v>
+      </c>
+      <c r="I20" s="207"/>
       <c r="J20" s="68"/>
     </row>
     <row r="21" spans="1:10" customFormat="1" ht="84">
-      <c r="A21" s="203" t="s">
+      <c r="A21" s="202" t="s">
         <v>402</v>
       </c>
-      <c r="B21" s="204" t="s">
+      <c r="B21" s="203" t="s">
         <v>399</v>
       </c>
-      <c r="C21" s="204"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="302" t="s">
+      <c r="C21" s="203"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="291" t="s">
         <v>224</v>
       </c>
-      <c r="G21" s="195" t="s">
+      <c r="G21" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="205" t="s">
-        <v>630</v>
-      </c>
-      <c r="I21" s="206" t="s">
+      <c r="H21" s="204" t="s">
+        <v>629</v>
+      </c>
+      <c r="I21" s="205" t="s">
         <v>404</v>
       </c>
-      <c r="J21" s="209" t="s">
-        <v>628</v>
+      <c r="J21" s="208" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="1:10" customFormat="1" ht="31" thickBot="1">
@@ -16402,14 +16500,14 @@
       <c r="C22" s="90"/>
       <c r="D22" s="90"/>
       <c r="E22" s="90"/>
-      <c r="F22" s="303" t="s">
+      <c r="F22" s="292" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="51" t="s">
         <v>232</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I22" s="52"/>
       <c r="J22" s="58"/>
@@ -16426,14 +16524,14 @@
       </c>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
-      <c r="F23" s="303" t="s">
+      <c r="F23" s="292" t="s">
         <v>279</v>
       </c>
       <c r="G23" s="51" t="s">
         <v>496</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I23" s="67"/>
       <c r="J23" s="58"/>
@@ -16452,20 +16550,20 @@
         <v>505</v>
       </c>
       <c r="E24" s="90"/>
-      <c r="F24" s="303" t="s">
+      <c r="F24" s="292" t="s">
         <v>217</v>
       </c>
-      <c r="G24" s="195" t="s">
+      <c r="G24" s="194" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I24" s="67" t="s">
         <v>404</v>
       </c>
       <c r="J24" s="58" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:10" customFormat="1" ht="26">
@@ -16482,20 +16580,20 @@
         <v>412</v>
       </c>
       <c r="E25" s="90"/>
-      <c r="F25" s="303" t="s">
+      <c r="F25" s="292" t="s">
         <v>217</v>
       </c>
       <c r="G25" s="51" t="s">
         <v>440</v>
       </c>
       <c r="H25" s="50" t="s">
+        <v>612</v>
+      </c>
+      <c r="I25" s="52" t="s">
         <v>613</v>
       </c>
-      <c r="I25" s="52" t="s">
+      <c r="J25" s="58" t="s">
         <v>614</v>
-      </c>
-      <c r="J25" s="58" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="26" spans="1:10" customFormat="1" ht="26">
@@ -16512,18 +16610,18 @@
         <v>260</v>
       </c>
       <c r="E26" s="90"/>
-      <c r="F26" s="303" t="s">
+      <c r="F26" s="292" t="s">
         <v>217</v>
       </c>
       <c r="G26" s="51" t="s">
         <v>440</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I26" s="52"/>
       <c r="J26" s="58" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:10" customFormat="1" ht="31" thickBot="1">
@@ -16538,20 +16636,20 @@
       </c>
       <c r="D27" s="98"/>
       <c r="E27" s="98"/>
-      <c r="F27" s="304" t="s">
+      <c r="F27" s="293" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="59" t="s">
         <v>440</v>
       </c>
       <c r="H27" s="60" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I27" s="165" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J27" s="61" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="135" customFormat="1" ht="264" customHeight="1" thickBot="1">
@@ -16569,7 +16667,7 @@
         <v>38</v>
       </c>
       <c r="H28" s="70" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I28" s="70"/>
       <c r="J28" s="154"/>
@@ -16590,8 +16688,8 @@
       <c r="G29" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="281" t="s">
-        <v>725</v>
+      <c r="H29" s="270" t="s">
+        <v>723</v>
       </c>
       <c r="I29" s="123" t="s">
         <v>11</v>
@@ -16745,13 +16843,13 @@
         <v>28</v>
       </c>
       <c r="H35" s="148" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I35" s="149" t="s">
         <v>11</v>
       </c>
       <c r="J35" s="158" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="31" thickBot="1">
@@ -16937,7 +17035,7 @@
         <v>25</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I43" s="43" t="s">
         <v>17</v>
@@ -17043,13 +17141,13 @@
         <v>473</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="48" spans="1:10" customFormat="1" ht="210">
@@ -17061,13 +17159,13 @@
       <c r="F48" s="14"/>
       <c r="G48" s="6"/>
       <c r="H48" s="21" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="286" t="s">
-        <v>865</v>
+      <c r="J48" s="275" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="49" spans="1:10" customFormat="1" ht="90">
@@ -17175,7 +17273,7 @@
         <v>482</v>
       </c>
       <c r="H53" s="148" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>17</v>
@@ -18040,39 +18138,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33D4670-3618-B947-8E34-E3DBE4848E0C}">
-  <dimension ref="A1:K116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883D7E00-7A12-CA42-BC41-D3193F3863D5}">
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="194" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="54" customWidth="1"/>
-    <col min="3" max="4" width="7.85546875" style="54" customWidth="1"/>
-    <col min="5" max="5" width="5" style="241" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="54" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="247" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="54" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="257" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="333" t="s">
-        <v>723</v>
-      </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="333"/>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="333"/>
-      <c r="G1" s="333"/>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
-    </row>
-    <row r="2" spans="1:11" ht="76" thickBot="1">
+    <row r="1" spans="1:9" ht="21" thickBot="1">
+      <c r="A1" s="322" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="G1" s="322"/>
+      <c r="H1" s="322"/>
+      <c r="I1" s="322"/>
+    </row>
+    <row r="2" spans="1:9" ht="31" thickBot="1">
       <c r="A2" s="190" t="s">
         <v>563</v>
       </c>
@@ -18085,7 +18183,7 @@
       <c r="D2" s="191" t="s">
         <v>566</v>
       </c>
-      <c r="E2" s="222" t="s">
+      <c r="E2" s="221" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="191" t="s">
@@ -18097,37 +18195,37 @@
       <c r="H2" s="192" t="s">
         <v>400</v>
       </c>
-      <c r="I2" s="242" t="s">
+      <c r="I2" s="240" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21" thickBot="1">
+    <row r="3" spans="1:9" ht="46" thickBot="1">
       <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
-      <c r="E3" s="223" t="s">
+      <c r="E3" s="222" t="s">
         <v>322</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="193" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H3" s="193"/>
-      <c r="I3" s="243" t="s">
+      <c r="I3" s="241" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:9">
       <c r="A4" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="224" t="s">
+      <c r="E4" s="223" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="28" t="s">
@@ -18135,16 +18233,16 @@
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
-      <c r="I4" s="243"/>
-    </row>
-    <row r="5" spans="1:11" ht="270">
+      <c r="I4" s="241"/>
+    </row>
+    <row r="5" spans="1:9" ht="409.6">
       <c r="A5" s="31"/>
       <c r="B5" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="225" t="s">
+      <c r="E5" s="224" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="28" t="s">
@@ -18157,10 +18255,10 @@
         <v>17</v>
       </c>
       <c r="I5" s="153" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="120">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="398">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -18169,24 +18267,23 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="226" t="s">
+      <c r="E6" s="225" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="I6" s="286" t="s">
-        <v>757</v>
-      </c>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" spans="1:11" s="135" customFormat="1">
+        <v>720</v>
+      </c>
+      <c r="I6" s="275" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
       <c r="A7" s="44" t="s">
         <v>13</v>
       </c>
@@ -18195,7 +18292,7 @@
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
-      <c r="E7" s="227" t="s">
+      <c r="E7" s="226" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="43" t="s">
@@ -18207,7 +18304,7 @@
       <c r="H7" s="43"/>
       <c r="I7" s="153"/>
     </row>
-    <row r="8" spans="1:11" s="135" customFormat="1" ht="45">
+    <row r="8" spans="1:9" ht="75">
       <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
@@ -18218,7 +18315,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="45"/>
-      <c r="E8" s="227" t="s">
+      <c r="E8" s="226" t="s">
         <v>224</v>
       </c>
       <c r="F8" s="43" t="s">
@@ -18231,10 +18328,10 @@
         <v>11</v>
       </c>
       <c r="I8" s="153" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="135" customFormat="1" ht="30">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="139" t="s">
         <v>13</v>
       </c>
@@ -18245,7 +18342,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="140"/>
-      <c r="E9" s="228" t="s">
+      <c r="E9" s="227" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="142" t="s">
@@ -18261,8 +18358,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="90">
-      <c r="A10" s="211" t="s">
+    <row r="10" spans="1:9" ht="300">
+      <c r="A10" s="210" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="23"/>
@@ -18275,31 +18372,31 @@
         <v>467</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H10" s="23"/>
-      <c r="I10" s="212"/>
-    </row>
-    <row r="11" spans="1:11" ht="55" customHeight="1">
+      <c r="I10" s="211"/>
+    </row>
+    <row r="11" spans="1:9" ht="240">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="229" t="s">
-        <v>447</v>
+      <c r="E11" s="335" t="s">
+        <v>279</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>600</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>604</v>
+        <v>870</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:11" ht="81" customHeight="1">
+    <row r="12" spans="1:9" ht="240">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -18310,190 +18407,190 @@
         <v>35</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>608</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>609</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:11" ht="31" thickBot="1">
-      <c r="A13" s="196" t="s">
+    <row r="13" spans="1:9" ht="91" thickBot="1">
+      <c r="A13" s="195" t="s">
         <v>403</v>
       </c>
-      <c r="B13" s="197"/>
-      <c r="C13" s="197"/>
-      <c r="D13" s="197"/>
-      <c r="E13" s="230" t="s">
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="229" t="s">
         <v>231</v>
       </c>
-      <c r="F13" s="199"/>
-      <c r="G13" s="219" t="s">
-        <v>726</v>
-      </c>
-      <c r="H13" s="201"/>
-      <c r="I13" s="245"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="F13" s="198"/>
+      <c r="G13" s="218" t="s">
+        <v>724</v>
+      </c>
+      <c r="H13" s="200"/>
+      <c r="I13" s="243"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="87" t="s">
         <v>401</v>
       </c>
       <c r="B14" s="94"/>
       <c r="C14" s="94"/>
       <c r="D14" s="94"/>
-      <c r="E14" s="260" t="s">
+      <c r="E14" s="256" t="s">
         <v>217</v>
       </c>
       <c r="F14" s="84" t="s">
         <v>278</v>
       </c>
       <c r="G14" s="71"/>
-      <c r="H14" s="208"/>
-      <c r="I14" s="287"/>
-    </row>
-    <row r="15" spans="1:11" ht="105">
-      <c r="A15" s="203" t="s">
+      <c r="H14" s="207"/>
+      <c r="I14" s="276"/>
+    </row>
+    <row r="15" spans="1:9" ht="342">
+      <c r="A15" s="202" t="s">
         <v>402</v>
       </c>
-      <c r="B15" s="204" t="s">
+      <c r="B15" s="203" t="s">
         <v>399</v>
       </c>
-      <c r="C15" s="204"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="261" t="s">
+      <c r="C15" s="203"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="257" t="s">
         <v>224</v>
       </c>
-      <c r="F15" s="195" t="s">
+      <c r="F15" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="278" t="s">
-        <v>730</v>
-      </c>
-      <c r="H15" s="206" t="s">
+      <c r="G15" s="267" t="s">
+        <v>728</v>
+      </c>
+      <c r="H15" s="205" t="s">
         <v>404</v>
       </c>
-      <c r="I15" s="288" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="35" customHeight="1">
+      <c r="I15" s="277" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30">
       <c r="A16" s="89" t="s">
         <v>402</v>
       </c>
       <c r="B16" s="90" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C16" s="90"/>
       <c r="D16" s="90"/>
-      <c r="E16" s="262" t="s">
+      <c r="E16" s="258" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="58"/>
     </row>
-    <row r="17" spans="1:9" ht="63">
+    <row r="17" spans="1:9" ht="147">
       <c r="A17" s="89" t="s">
         <v>402</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C17" s="90" t="s">
         <v>505</v>
       </c>
       <c r="D17" s="90"/>
-      <c r="E17" s="262" t="s">
+      <c r="E17" s="258" t="s">
         <v>224</v>
       </c>
-      <c r="F17" s="195" t="s">
+      <c r="F17" s="194" t="s">
         <v>553</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>622</v>
-      </c>
-      <c r="H17" s="206" t="s">
+        <v>621</v>
+      </c>
+      <c r="H17" s="205" t="s">
         <v>404</v>
       </c>
-      <c r="I17" s="207" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="21" thickBot="1">
+      <c r="I17" s="206" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="31" thickBot="1">
       <c r="A18" s="97" t="s">
         <v>402</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="263" t="s">
+      <c r="E18" s="259" t="s">
         <v>224</v>
       </c>
       <c r="F18" s="59" t="s">
         <v>440</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H18" s="165" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I18" s="61" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="45">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="135">
       <c r="A19" s="87" t="s">
         <v>401</v>
       </c>
       <c r="B19" s="94"/>
       <c r="C19" s="94"/>
       <c r="D19" s="94"/>
-      <c r="E19" s="305" t="s">
+      <c r="E19" s="294" t="s">
         <v>217</v>
       </c>
       <c r="F19" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="G19" s="277" t="s">
-        <v>731</v>
-      </c>
-      <c r="H19" s="208"/>
-      <c r="I19" s="251"/>
-    </row>
-    <row r="20" spans="1:9" ht="54">
-      <c r="A20" s="203" t="s">
+      <c r="G19" s="266" t="s">
+        <v>729</v>
+      </c>
+      <c r="H19" s="207"/>
+      <c r="I19" s="248"/>
+    </row>
+    <row r="20" spans="1:9" ht="108">
+      <c r="A20" s="202" t="s">
         <v>402</v>
       </c>
-      <c r="B20" s="204" t="s">
+      <c r="B20" s="203" t="s">
         <v>399</v>
       </c>
-      <c r="C20" s="204"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="306" t="s">
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="295" t="s">
         <v>224</v>
       </c>
-      <c r="F20" s="195" t="s">
+      <c r="F20" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="205" t="s">
-        <v>630</v>
-      </c>
-      <c r="H20" s="206" t="s">
+      <c r="G20" s="204" t="s">
+        <v>629</v>
+      </c>
+      <c r="H20" s="205" t="s">
         <v>404</v>
       </c>
-      <c r="I20" s="253" t="s">
-        <v>628</v>
+      <c r="I20" s="250" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="31" thickBot="1">
@@ -18505,19 +18602,19 @@
       </c>
       <c r="C21" s="90"/>
       <c r="D21" s="90"/>
-      <c r="E21" s="307" t="s">
+      <c r="E21" s="296" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="51" t="s">
         <v>232</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H21" s="52"/>
-      <c r="I21" s="243"/>
-    </row>
-    <row r="22" spans="1:9" ht="27" thickBot="1">
+      <c r="I21" s="241"/>
+    </row>
+    <row r="22" spans="1:9" ht="31" thickBot="1">
       <c r="A22" s="89" t="s">
         <v>402</v>
       </c>
@@ -18528,19 +18625,19 @@
         <v>491</v>
       </c>
       <c r="D22" s="90"/>
-      <c r="E22" s="307" t="s">
+      <c r="E22" s="296" t="s">
         <v>279</v>
       </c>
       <c r="F22" s="51" t="s">
         <v>496</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H22" s="67"/>
-      <c r="I22" s="243"/>
-    </row>
-    <row r="23" spans="1:9" ht="42">
+      <c r="I22" s="241"/>
+    </row>
+    <row r="23" spans="1:9" ht="70">
       <c r="A23" s="89" t="s">
         <v>402</v>
       </c>
@@ -18553,23 +18650,23 @@
       <c r="D23" s="90" t="s">
         <v>505</v>
       </c>
-      <c r="E23" s="307" t="s">
+      <c r="E23" s="296" t="s">
         <v>217</v>
       </c>
-      <c r="F23" s="195" t="s">
+      <c r="F23" s="194" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H23" s="67" t="s">
         <v>404</v>
       </c>
-      <c r="I23" s="243" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="26">
+      <c r="I23" s="241" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45">
       <c r="A24" s="89" t="s">
         <v>402</v>
       </c>
@@ -18582,23 +18679,23 @@
       <c r="D24" s="90" t="s">
         <v>412</v>
       </c>
-      <c r="E24" s="307" t="s">
+      <c r="E24" s="296" t="s">
         <v>217</v>
       </c>
       <c r="F24" s="51" t="s">
         <v>440</v>
       </c>
       <c r="G24" s="29" t="s">
+        <v>612</v>
+      </c>
+      <c r="H24" s="52" t="s">
         <v>613</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="I24" s="241" t="s">
         <v>614</v>
       </c>
-      <c r="I24" s="243" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="26">
+    </row>
+    <row r="25" spans="1:9" ht="60">
       <c r="A25" s="89" t="s">
         <v>402</v>
       </c>
@@ -18611,21 +18708,21 @@
       <c r="D25" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="E25" s="307" t="s">
+      <c r="E25" s="296" t="s">
         <v>217</v>
       </c>
       <c r="F25" s="51" t="s">
         <v>440</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H25" s="52"/>
-      <c r="I25" s="243" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="31" thickBot="1">
+      <c r="I25" s="241" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="61" thickBot="1">
       <c r="A26" s="97" t="s">
         <v>402</v>
       </c>
@@ -18636,42 +18733,42 @@
         <v>419</v>
       </c>
       <c r="D26" s="98"/>
-      <c r="E26" s="308" t="s">
+      <c r="E26" s="297" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="59" t="s">
         <v>440</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H26" s="165" t="s">
-        <v>614</v>
-      </c>
-      <c r="I26" s="252" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="135" customFormat="1" ht="272" customHeight="1" thickBot="1">
+        <v>613</v>
+      </c>
+      <c r="I26" s="249" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="409.6" thickBot="1">
       <c r="A27" s="117" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="118"/>
       <c r="C27" s="118"/>
       <c r="D27" s="118"/>
-      <c r="E27" s="231" t="s">
+      <c r="E27" s="230" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="70" t="s">
         <v>38</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H27" s="70"/>
       <c r="I27" s="154"/>
     </row>
-    <row r="28" spans="1:9" s="135" customFormat="1" ht="60">
+    <row r="28" spans="1:9" ht="225">
       <c r="A28" s="120" t="s">
         <v>39</v>
       </c>
@@ -18680,23 +18777,23 @@
       </c>
       <c r="C28" s="121"/>
       <c r="D28" s="121"/>
-      <c r="E28" s="232" t="s">
+      <c r="E28" s="231" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="281" t="s">
-        <v>725</v>
+      <c r="G28" s="270" t="s">
+        <v>723</v>
       </c>
       <c r="H28" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="254" t="s">
+      <c r="I28" s="251" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="135" customFormat="1" ht="30">
+    <row r="29" spans="1:9" ht="105">
       <c r="A29" s="139" t="s">
         <v>40</v>
       </c>
@@ -18705,7 +18802,7 @@
       </c>
       <c r="C29" s="140"/>
       <c r="D29" s="140"/>
-      <c r="E29" s="233" t="s">
+      <c r="E29" s="232" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="142" t="s">
@@ -18721,13 +18818,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="135" customFormat="1" ht="135">
-      <c r="A30" s="216" t="s">
+    <row r="30" spans="1:9" ht="409.6">
+      <c r="A30" s="215" t="s">
         <v>481</v>
       </c>
-      <c r="B30" s="217"/>
-      <c r="C30" s="217"/>
-      <c r="D30" s="217"/>
+      <c r="B30" s="216"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="216"/>
       <c r="E30" s="133" t="s">
         <v>217</v>
       </c>
@@ -18735,54 +18832,54 @@
         <v>482</v>
       </c>
       <c r="G30" s="133" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H30" s="133"/>
-      <c r="I30" s="218"/>
-    </row>
-    <row r="31" spans="1:9" ht="136" thickBot="1">
-      <c r="A31" s="213" t="s">
+      <c r="I30" s="217"/>
+    </row>
+    <row r="31" spans="1:9" ht="315" thickBot="1">
+      <c r="A31" s="212" t="s">
         <v>265</v>
       </c>
-      <c r="B31" s="214"/>
-      <c r="C31" s="214"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="234" t="s">
+      <c r="B31" s="213"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="213"/>
+      <c r="E31" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="214" t="s">
+      <c r="F31" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="215" t="s">
-        <v>635</v>
+      <c r="G31" s="214" t="s">
+        <v>634</v>
       </c>
       <c r="H31" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="244" t="s">
+      <c r="I31" s="242" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="134" customFormat="1" ht="32" customHeight="1">
+    <row r="32" spans="1:9" ht="30">
       <c r="A32" s="113" t="s">
         <v>326</v>
       </c>
       <c r="B32" s="114"/>
       <c r="C32" s="114"/>
       <c r="D32" s="114"/>
-      <c r="E32" s="235" t="s">
+      <c r="E32" s="234" t="s">
         <v>327</v>
       </c>
       <c r="F32" s="116" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="116" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H32" s="116"/>
       <c r="I32" s="152"/>
     </row>
-    <row r="33" spans="1:9" s="134" customFormat="1" ht="102" customHeight="1">
+    <row r="33" spans="1:9" ht="108">
       <c r="A33" s="40" t="s">
         <v>329</v>
       </c>
@@ -18791,23 +18888,23 @@
       </c>
       <c r="C33" s="41"/>
       <c r="D33" s="41"/>
-      <c r="E33" s="236" t="s">
+      <c r="E33" s="235" t="s">
         <v>322</v>
       </c>
       <c r="F33" s="37" t="s">
         <v>25</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H33" s="43" t="s">
         <v>404</v>
       </c>
-      <c r="I33" s="255" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="134" customFormat="1" ht="91" customHeight="1">
+      <c r="I33" s="252" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="45">
       <c r="A34" s="40" t="s">
         <v>331</v>
       </c>
@@ -18816,23 +18913,23 @@
       </c>
       <c r="C34" s="41"/>
       <c r="D34" s="41"/>
-      <c r="E34" s="236" t="s">
+      <c r="E34" s="235" t="s">
         <v>322</v>
       </c>
       <c r="F34" s="37" t="s">
         <v>42</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H34" s="43" t="s">
         <v>404</v>
       </c>
       <c r="I34" s="159" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="134" customFormat="1" ht="58" customHeight="1" thickBot="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="46" thickBot="1">
       <c r="A35" s="102" t="s">
         <v>331</v>
       </c>
@@ -18841,40 +18938,40 @@
       </c>
       <c r="C35" s="103"/>
       <c r="D35" s="103"/>
-      <c r="E35" s="237" t="s">
+      <c r="E35" s="236" t="s">
         <v>327</v>
       </c>
       <c r="F35" s="105" t="s">
         <v>42</v>
       </c>
       <c r="G35" s="144" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H35" s="142" t="s">
         <v>404</v>
       </c>
       <c r="I35" s="157" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="45">
       <c r="A36" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
-      <c r="E36" s="271" t="s">
+      <c r="E36" s="261" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="246" t="s">
-        <v>644</v>
-      </c>
-      <c r="H36" s="246"/>
-      <c r="I36" s="251"/>
+      <c r="G36" s="244" t="s">
+        <v>643</v>
+      </c>
+      <c r="H36" s="244"/>
+      <c r="I36" s="248"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="31" t="s">
@@ -18885,14 +18982,15 @@
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
-      <c r="E37" s="271" t="s">
+      <c r="E37" s="261" t="s">
         <v>215</v>
       </c>
-      <c r="G37" s="343" t="s">
-        <v>645</v>
-      </c>
-      <c r="H37" s="340"/>
-      <c r="I37" s="341"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="332" t="s">
+        <v>644</v>
+      </c>
+      <c r="H37" s="329"/>
+      <c r="I37" s="330"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="31" t="s">
@@ -18903,15 +19001,15 @@
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="271" t="s">
+      <c r="E38" s="261" t="s">
         <v>224</v>
       </c>
       <c r="F38" s="28" t="s">
         <v>496</v>
       </c>
-      <c r="G38" s="344"/>
-      <c r="H38" s="336"/>
-      <c r="I38" s="342"/>
+      <c r="G38" s="333"/>
+      <c r="H38" s="325"/>
+      <c r="I38" s="331"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="31" t="s">
@@ -18924,15 +19022,15 @@
         <v>505</v>
       </c>
       <c r="D39" s="28"/>
-      <c r="E39" s="271" t="s">
+      <c r="E39" s="261" t="s">
         <v>224</v>
       </c>
       <c r="F39" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="G39" s="344"/>
-      <c r="H39" s="336"/>
-      <c r="I39" s="342"/>
+      <c r="G39" s="333"/>
+      <c r="H39" s="325"/>
+      <c r="I39" s="331"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="31" t="s">
@@ -18945,15 +19043,15 @@
         <v>412</v>
       </c>
       <c r="D40" s="28"/>
-      <c r="E40" s="271" t="s">
+      <c r="E40" s="261" t="s">
         <v>224</v>
       </c>
       <c r="F40" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="G40" s="344"/>
-      <c r="H40" s="336"/>
-      <c r="I40" s="342"/>
+      <c r="G40" s="333"/>
+      <c r="H40" s="325"/>
+      <c r="I40" s="331"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="31" t="s">
@@ -18966,59 +19064,59 @@
         <v>260</v>
       </c>
       <c r="D41" s="28"/>
-      <c r="E41" s="271" t="s">
+      <c r="E41" s="261" t="s">
         <v>224</v>
       </c>
       <c r="F41" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="G41" s="344"/>
-      <c r="H41" s="336"/>
-      <c r="I41" s="342"/>
+      <c r="G41" s="333"/>
+      <c r="H41" s="325"/>
+      <c r="I41" s="331"/>
     </row>
     <row r="42" spans="1:9" ht="21" thickBot="1">
-      <c r="A42" s="264" t="s">
+      <c r="A42" s="260" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="220" t="s">
+      <c r="B42" s="219" t="s">
         <v>419</v>
       </c>
-      <c r="C42" s="220"/>
-      <c r="D42" s="220"/>
-      <c r="E42" s="240" t="s">
-        <v>646</v>
-      </c>
-      <c r="F42" s="220" t="s">
+      <c r="C42" s="219"/>
+      <c r="D42" s="219"/>
+      <c r="E42" s="239" t="s">
+        <v>645</v>
+      </c>
+      <c r="F42" s="219" t="s">
         <v>440</v>
       </c>
-      <c r="G42" s="344"/>
-      <c r="H42" s="336"/>
-      <c r="I42" s="342"/>
-    </row>
-    <row r="43" spans="1:9" ht="86" customHeight="1">
-      <c r="A43" s="310" t="s">
+      <c r="G42" s="333"/>
+      <c r="H42" s="325"/>
+      <c r="I42" s="331"/>
+    </row>
+    <row r="43" spans="1:9" ht="225">
+      <c r="A43" s="299" t="s">
         <v>235</v>
       </c>
-      <c r="B43" s="311"/>
-      <c r="C43" s="311"/>
-      <c r="D43" s="311"/>
-      <c r="E43" s="312" t="s">
+      <c r="B43" s="300"/>
+      <c r="C43" s="300"/>
+      <c r="D43" s="300"/>
+      <c r="E43" s="301" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="311" t="s">
+      <c r="F43" s="300" t="s">
         <v>473</v>
       </c>
-      <c r="G43" s="311" t="s">
-        <v>747</v>
-      </c>
-      <c r="H43" s="311" t="s">
+      <c r="G43" s="300" t="s">
+        <v>745</v>
+      </c>
+      <c r="H43" s="300" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="313" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="210">
+      <c r="I43" s="302" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="314">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -19026,30 +19124,30 @@
       <c r="E44" s="14"/>
       <c r="F44" s="6"/>
       <c r="G44" s="21" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="286" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="90">
+      <c r="I44" s="275" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="342">
       <c r="A45" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="239" t="s">
+      <c r="E45" s="238" t="s">
         <v>45</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>474</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>17</v>
@@ -19058,7 +19156,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="165">
+    <row r="46" spans="1:9" ht="409.6">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -19075,132 +19173,132 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="58">
+    <row r="47" spans="1:9" ht="105">
       <c r="A47" s="28" t="s">
-        <v>711</v>
-      </c>
-      <c r="B47" s="220"/>
-      <c r="C47" s="220"/>
-      <c r="D47" s="220"/>
-      <c r="E47" s="240" t="s">
+        <v>709</v>
+      </c>
+      <c r="B47" s="219"/>
+      <c r="C47" s="219"/>
+      <c r="D47" s="219"/>
+      <c r="E47" s="239" t="s">
         <v>224</v>
       </c>
       <c r="F47" s="28" t="s">
+        <v>649</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>647</v>
+      </c>
+      <c r="I47" s="243" t="s">
         <v>650</v>
       </c>
-      <c r="G47" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>648</v>
-      </c>
-      <c r="I47" s="245" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="66" customHeight="1">
-      <c r="A48" s="249" t="s">
+    </row>
+    <row r="48" spans="1:9" ht="180">
+      <c r="A48" s="246" t="s">
+        <v>691</v>
+      </c>
+      <c r="B48" s="219"/>
+      <c r="C48" s="219"/>
+      <c r="D48" s="219"/>
+      <c r="E48" s="263" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>647</v>
+      </c>
+      <c r="I48" s="243" t="s">
         <v>693</v>
       </c>
-      <c r="B48" s="220"/>
-      <c r="C48" s="220"/>
-      <c r="D48" s="220"/>
-      <c r="E48" s="274" t="s">
-        <v>217</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>694</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>648</v>
-      </c>
-      <c r="I48" s="245" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="105">
-      <c r="A49" s="221" t="s">
-        <v>654</v>
+    </row>
+    <row r="49" spans="1:9" ht="328">
+      <c r="A49" s="220" t="s">
+        <v>653</v>
       </c>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
-      <c r="E49" s="248" t="s">
+      <c r="E49" s="245" t="s">
         <v>217</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="29" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H49" s="29"/>
-      <c r="I49" s="243"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="I49" s="241"/>
+    </row>
+    <row r="50" spans="1:9" ht="30">
       <c r="A50" s="28" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="248" t="s">
+      <c r="E50" s="245" t="s">
         <v>45</v>
       </c>
       <c r="F50" s="28" t="s">
         <v>371</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H50" s="29"/>
-      <c r="I50" s="243"/>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="I50" s="241"/>
+    </row>
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" s="28"/>
       <c r="B51" s="28" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
-      <c r="E51" s="248">
+      <c r="E51" s="245">
         <v>1.1000000000000001</v>
       </c>
       <c r="F51" s="28" t="s">
+        <v>655</v>
+      </c>
+      <c r="G51" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="G51" s="29" t="s">
-        <v>657</v>
-      </c>
       <c r="H51" s="29" t="s">
-        <v>614</v>
-      </c>
-      <c r="I51" s="243">
+        <v>613</v>
+      </c>
+      <c r="I51" s="241">
         <v>193.04</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="60">
+    <row r="52" spans="1:9" ht="210">
       <c r="A52" s="28"/>
       <c r="B52" s="28" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
-      <c r="E52" s="248" t="s">
+      <c r="E52" s="245" t="s">
         <v>217</v>
       </c>
       <c r="F52" s="28" t="s">
         <v>412</v>
       </c>
       <c r="G52" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="I52" s="241" t="s">
         <v>658</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>614</v>
-      </c>
-      <c r="I52" s="243" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -19210,82 +19308,82 @@
       </c>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
-      <c r="E53" s="248" t="s">
+      <c r="E53" s="245" t="s">
         <v>217</v>
       </c>
       <c r="F53" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G53" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="I53" s="241" t="s">
         <v>660</v>
       </c>
-      <c r="H53" s="29" t="s">
-        <v>614</v>
-      </c>
-      <c r="I53" s="243" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="30">
+    </row>
+    <row r="54" spans="1:9" ht="90">
       <c r="A54" s="28"/>
       <c r="B54" s="28" t="s">
         <v>505</v>
       </c>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
-      <c r="E54" s="248" t="s">
+      <c r="E54" s="245" t="s">
         <v>217</v>
       </c>
       <c r="F54" s="28" t="s">
         <v>553</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>614</v>
-      </c>
-      <c r="I54" s="256" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>613</v>
+      </c>
+      <c r="I54" s="253" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="30">
       <c r="A55" s="28"/>
       <c r="B55" s="28" t="s">
         <v>412</v>
       </c>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
-      <c r="E55" s="248" t="s">
+      <c r="E55" s="245" t="s">
         <v>217</v>
       </c>
       <c r="F55" s="28" t="s">
         <v>412</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H55" s="29"/>
-      <c r="I55" s="243"/>
-    </row>
-    <row r="56" spans="1:9" ht="60">
+      <c r="I55" s="241"/>
+    </row>
+    <row r="56" spans="1:9" ht="195">
       <c r="A56" s="28" t="s">
         <v>495</v>
       </c>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
       <c r="D56" s="28"/>
-      <c r="E56" s="248" t="s">
+      <c r="E56" s="245" t="s">
         <v>45</v>
       </c>
       <c r="F56" s="28" t="s">
         <v>46</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H56" s="29"/>
-      <c r="I56" s="243"/>
+      <c r="I56" s="241"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="28"/>
@@ -19294,15 +19392,15 @@
       </c>
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
-      <c r="E57" s="248" t="s">
+      <c r="E57" s="245" t="s">
         <v>231</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
-      <c r="I57" s="243"/>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="I57" s="241"/>
+    </row>
+    <row r="58" spans="1:9" ht="30">
       <c r="A58" s="28"/>
       <c r="B58" s="28" t="s">
         <v>408</v>
@@ -19311,17 +19409,17 @@
         <v>505</v>
       </c>
       <c r="D58" s="28"/>
-      <c r="E58" s="248" t="s">
+      <c r="E58" s="245" t="s">
         <v>224</v>
       </c>
       <c r="F58" s="28" t="s">
         <v>553</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H58" s="29"/>
-      <c r="I58" s="243"/>
+      <c r="I58" s="241"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="28"/>
@@ -19332,23 +19430,23 @@
         <v>412</v>
       </c>
       <c r="D59" s="28"/>
-      <c r="E59" s="248" t="s">
+      <c r="E59" s="245" t="s">
         <v>224</v>
       </c>
       <c r="F59" s="28" t="s">
         <v>440</v>
       </c>
       <c r="G59" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="I59" s="241" t="s">
         <v>680</v>
       </c>
-      <c r="H59" s="29" t="s">
-        <v>614</v>
-      </c>
-      <c r="I59" s="243" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+    </row>
+    <row r="60" spans="1:9" ht="45">
       <c r="A60" s="28"/>
       <c r="B60" s="28" t="s">
         <v>409</v>
@@ -19357,253 +19455,253 @@
         <v>260</v>
       </c>
       <c r="D60" s="28"/>
-      <c r="E60" s="248" t="s">
+      <c r="E60" s="245" t="s">
         <v>224</v>
       </c>
       <c r="F60" s="28" t="s">
         <v>440</v>
       </c>
       <c r="G60" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="I60" s="241" t="s">
         <v>681</v>
       </c>
-      <c r="H60" s="29" t="s">
-        <v>614</v>
-      </c>
-      <c r="I60" s="243" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="30">
+    </row>
+    <row r="61" spans="1:9" ht="90">
       <c r="A61" s="28" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
-      <c r="E61" s="248" t="s">
+      <c r="E61" s="245" t="s">
         <v>45</v>
       </c>
       <c r="F61" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H61" s="29"/>
-      <c r="I61" s="243"/>
-    </row>
-    <row r="62" spans="1:9" ht="30">
+      <c r="I61" s="241"/>
+    </row>
+    <row r="62" spans="1:9" ht="75">
       <c r="A62" s="28" t="s">
         <v>568</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
-      <c r="E62" s="250" t="s">
+      <c r="E62" s="247" t="s">
         <v>45</v>
       </c>
       <c r="F62" s="28" t="s">
         <v>363</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H62" s="29"/>
-      <c r="I62" s="243"/>
-    </row>
-    <row r="63" spans="1:9" ht="30">
+      <c r="I62" s="241"/>
+    </row>
+    <row r="63" spans="1:9" ht="105">
       <c r="A63" s="28" t="s">
         <v>282</v>
       </c>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
-      <c r="E63" s="250" t="s">
+      <c r="E63" s="247" t="s">
         <v>45</v>
       </c>
       <c r="F63" s="28" t="s">
         <v>283</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H63" s="29"/>
-      <c r="I63" s="243"/>
-    </row>
-    <row r="64" spans="1:9" ht="30">
+      <c r="I63" s="241"/>
+    </row>
+    <row r="64" spans="1:9" ht="75">
       <c r="A64" s="28" t="s">
         <v>569</v>
       </c>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
-      <c r="E64" s="250" t="s">
+      <c r="E64" s="247" t="s">
         <v>45</v>
       </c>
       <c r="F64" s="28" t="s">
         <v>104</v>
       </c>
       <c r="G64" s="29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H64" s="29"/>
-      <c r="I64" s="243"/>
-    </row>
-    <row r="65" spans="1:9" ht="30">
+      <c r="I64" s="241"/>
+    </row>
+    <row r="65" spans="1:9" ht="75">
       <c r="A65" s="28" t="s">
         <v>570</v>
       </c>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
       <c r="D65" s="28"/>
-      <c r="E65" s="250" t="s">
+      <c r="E65" s="247" t="s">
         <v>45</v>
       </c>
       <c r="F65" s="28" t="s">
         <v>369</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H65" s="29"/>
-      <c r="I65" s="243"/>
-    </row>
-    <row r="66" spans="1:9" ht="30">
+      <c r="I65" s="241"/>
+    </row>
+    <row r="66" spans="1:9" ht="75">
       <c r="A66" s="28" t="s">
         <v>571</v>
       </c>
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
-      <c r="E66" s="250" t="s">
+      <c r="E66" s="247" t="s">
         <v>45</v>
       </c>
       <c r="F66" s="28" t="s">
         <v>572</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H66" s="29"/>
-      <c r="I66" s="243"/>
-    </row>
-    <row r="67" spans="1:9" ht="30">
+      <c r="I66" s="241"/>
+    </row>
+    <row r="67" spans="1:9" ht="75">
       <c r="A67" s="28" t="s">
         <v>573</v>
       </c>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
-      <c r="E67" s="250" t="s">
+      <c r="E67" s="247" t="s">
         <v>45</v>
       </c>
       <c r="F67" s="28" t="s">
         <v>130</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H67" s="29"/>
-      <c r="I67" s="243"/>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="I67" s="241"/>
+    </row>
+    <row r="68" spans="1:9" ht="60">
       <c r="A68" s="28" t="s">
         <v>574</v>
       </c>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
-      <c r="E68" s="250" t="s">
+      <c r="E68" s="247" t="s">
         <v>45</v>
       </c>
       <c r="F68" s="28" t="s">
         <v>82</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H68" s="29"/>
-      <c r="I68" s="243"/>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="I68" s="241"/>
+    </row>
+    <row r="69" spans="1:9" ht="60">
       <c r="A69" s="28" t="s">
         <v>353</v>
       </c>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
       <c r="D69" s="28"/>
-      <c r="E69" s="250" t="s">
+      <c r="E69" s="247" t="s">
         <v>45</v>
       </c>
       <c r="F69" s="28" t="s">
         <v>354</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H69" s="29"/>
-      <c r="I69" s="243"/>
-    </row>
-    <row r="70" spans="1:9" ht="75">
+      <c r="I69" s="241"/>
+    </row>
+    <row r="70" spans="1:9" ht="270">
       <c r="A70" s="31" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
-      <c r="E70" s="248" t="s">
+      <c r="E70" s="245" t="s">
         <v>45</v>
       </c>
       <c r="F70" s="28" t="s">
         <v>46</v>
       </c>
       <c r="G70" s="29" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H70" s="29"/>
-      <c r="I70" s="243"/>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="I70" s="241"/>
+    </row>
+    <row r="71" spans="1:9" ht="28">
       <c r="A71" s="31"/>
       <c r="B71" s="28" t="s">
         <v>419</v>
       </c>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
-      <c r="E71" s="248" t="s">
+      <c r="E71" s="245" t="s">
         <v>45</v>
       </c>
       <c r="F71" s="28" t="s">
         <v>440</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="I71" s="243" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="28">
+        <v>670</v>
+      </c>
+      <c r="I71" s="241" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="60">
       <c r="A72" s="31" t="s">
         <v>576</v>
       </c>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
-      <c r="E72" s="272" t="s">
+      <c r="E72" s="262" t="s">
         <v>231</v>
       </c>
       <c r="F72" s="28" t="s">
         <v>46</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H72" s="29"/>
-      <c r="I72" s="243"/>
+      <c r="I72" s="241"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="31"/>
@@ -19612,15 +19710,15 @@
       </c>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
-      <c r="E73" s="272" t="s">
+      <c r="E73" s="262" t="s">
         <v>231</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
-      <c r="I73" s="243"/>
-    </row>
-    <row r="74" spans="1:9" ht="42">
+      <c r="I73" s="241"/>
+    </row>
+    <row r="74" spans="1:9" ht="70">
       <c r="A74" s="31"/>
       <c r="B74" s="28" t="s">
         <v>408</v>
@@ -19629,23 +19727,23 @@
         <v>505</v>
       </c>
       <c r="D74" s="28"/>
-      <c r="E74" s="272" t="s">
+      <c r="E74" s="262" t="s">
         <v>217</v>
       </c>
       <c r="F74" s="28" t="s">
         <v>553</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>687</v>
-      </c>
-      <c r="I74" s="243" t="s">
+        <v>685</v>
+      </c>
+      <c r="I74" s="241" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30">
+    <row r="75" spans="1:9" ht="75">
       <c r="A75" s="31"/>
       <c r="B75" s="28" t="s">
         <v>409</v>
@@ -19654,23 +19752,23 @@
         <v>412</v>
       </c>
       <c r="D75" s="28"/>
-      <c r="E75" s="272" t="s">
+      <c r="E75" s="262" t="s">
         <v>217</v>
       </c>
       <c r="F75" s="28" t="s">
         <v>440</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="I75" s="243" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>670</v>
+      </c>
+      <c r="I75" s="241" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="45">
       <c r="A76" s="31"/>
       <c r="B76" s="28" t="s">
         <v>409</v>
@@ -19679,20 +19777,20 @@
         <v>260</v>
       </c>
       <c r="D76" s="28"/>
-      <c r="E76" s="272" t="s">
+      <c r="E76" s="262" t="s">
         <v>217</v>
       </c>
       <c r="F76" s="28" t="s">
         <v>440</v>
       </c>
       <c r="G76" s="29" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="I76" s="243" t="s">
-        <v>705</v>
+        <v>670</v>
+      </c>
+      <c r="I76" s="241" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -19702,30 +19800,30 @@
       </c>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
-      <c r="E77" s="272" t="s">
+      <c r="E77" s="262" t="s">
         <v>217</v>
       </c>
       <c r="F77" s="28" t="s">
         <v>440</v>
       </c>
       <c r="G77" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="I77" s="254" t="s">
         <v>706</v>
       </c>
-      <c r="H77" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="I77" s="258" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+    </row>
+    <row r="78" spans="1:9" ht="45">
       <c r="A78" s="31" t="s">
         <v>252</v>
       </c>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
-      <c r="E78" s="238" t="s">
+      <c r="E78" s="237" t="s">
         <v>19</v>
       </c>
       <c r="F78" s="28"/>
@@ -19733,7 +19831,7 @@
         <v>583</v>
       </c>
       <c r="H78" s="29"/>
-      <c r="I78" s="243"/>
+      <c r="I78" s="241"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="31"/>
@@ -19742,7 +19840,7 @@
       </c>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
-      <c r="E79" s="238" t="s">
+      <c r="E79" s="237" t="s">
         <v>45</v>
       </c>
       <c r="F79" s="28"/>
@@ -19750,16 +19848,16 @@
         <v>584</v>
       </c>
       <c r="H79" s="29"/>
-      <c r="I79" s="243"/>
-    </row>
-    <row r="80" spans="1:9" ht="28">
+      <c r="I79" s="241"/>
+    </row>
+    <row r="80" spans="1:9" ht="60">
       <c r="A80" s="31"/>
       <c r="B80" s="28"/>
       <c r="C80" s="28" t="s">
         <v>126</v>
       </c>
       <c r="D80" s="28"/>
-      <c r="E80" s="238" t="s">
+      <c r="E80" s="237" t="s">
         <v>45</v>
       </c>
       <c r="F80" s="28" t="s">
@@ -19769,18 +19867,18 @@
         <v>127</v>
       </c>
       <c r="H80" s="29"/>
-      <c r="I80" s="243" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="I80" s="241" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="45">
       <c r="A81" s="31"/>
       <c r="B81" s="28" t="s">
         <v>130</v>
       </c>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
-      <c r="E81" s="238" t="s">
+      <c r="E81" s="237" t="s">
         <v>45</v>
       </c>
       <c r="F81" s="28" t="s">
@@ -19790,16 +19888,16 @@
         <v>585</v>
       </c>
       <c r="H81" s="29"/>
-      <c r="I81" s="243"/>
-    </row>
-    <row r="82" spans="1:9" ht="30">
+      <c r="I81" s="241"/>
+    </row>
+    <row r="82" spans="1:9" ht="120">
       <c r="A82" s="31"/>
       <c r="B82" s="28" t="s">
         <v>55</v>
       </c>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
-      <c r="E82" s="238" t="s">
+      <c r="E82" s="237" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="28" t="s">
@@ -19809,28 +19907,28 @@
         <v>586</v>
       </c>
       <c r="H82" s="29"/>
-      <c r="I82" s="243"/>
-    </row>
-    <row r="83" spans="1:9" ht="30">
+      <c r="I82" s="241"/>
+    </row>
+    <row r="83" spans="1:9" ht="90">
       <c r="A83" s="31" t="s">
         <v>366</v>
       </c>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
-      <c r="E83" s="238" t="s">
+      <c r="E83" s="237" t="s">
         <v>45</v>
       </c>
       <c r="F83" s="28" t="s">
         <v>46</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H83" s="29"/>
-      <c r="I83" s="243"/>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="I83" s="241"/>
+    </row>
+    <row r="84" spans="1:9" ht="28">
       <c r="A84" s="31"/>
       <c r="B84" s="28" t="s">
         <v>491</v>
@@ -19839,33 +19937,33 @@
         <v>419</v>
       </c>
       <c r="D84" s="28"/>
-      <c r="E84" s="238" t="s">
+      <c r="E84" s="237" t="s">
         <v>224</v>
       </c>
       <c r="F84" s="28" t="s">
         <v>42</v>
       </c>
       <c r="G84" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H84" s="28"/>
-      <c r="I84" s="243"/>
-    </row>
-    <row r="85" spans="1:9" ht="75">
+      <c r="I84" s="241"/>
+    </row>
+    <row r="85" spans="1:9" ht="300">
       <c r="A85" s="31" t="s">
         <v>577</v>
       </c>
-      <c r="B85" s="259"/>
-      <c r="C85" s="259"/>
-      <c r="D85" s="259"/>
-      <c r="E85" s="229" t="s">
+      <c r="B85" s="255"/>
+      <c r="C85" s="255"/>
+      <c r="D85" s="255"/>
+      <c r="E85" s="228" t="s">
         <v>224</v>
       </c>
       <c r="F85" s="28" t="s">
         <v>578</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>17</v>
@@ -19874,7 +19972,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="135">
+    <row r="86" spans="1:9" ht="409.6">
       <c r="A86" s="5"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -19882,484 +19980,370 @@
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6" t="s">
-        <v>675</v>
+        <v>871</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="30">
-      <c r="A87" s="31" t="s">
-        <v>712</v>
-      </c>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="272" t="s">
+      <c r="A87" s="336"/>
+      <c r="B87" s="337" t="s">
+        <v>530</v>
+      </c>
+      <c r="C87" s="337"/>
+      <c r="D87" s="337"/>
+      <c r="E87" s="337" t="s">
+        <v>217</v>
+      </c>
+      <c r="F87" s="337" t="s">
+        <v>440</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" s="338" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="30">
+      <c r="A88" s="336"/>
+      <c r="B88" s="337" t="s">
+        <v>260</v>
+      </c>
+      <c r="C88" s="337"/>
+      <c r="D88" s="337"/>
+      <c r="E88" s="337" t="s">
+        <v>217</v>
+      </c>
+      <c r="F88" s="337" t="s">
+        <v>440</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="339" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="75">
+      <c r="A89" s="31" t="s">
+        <v>710</v>
+      </c>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="262" t="s">
         <v>279</v>
       </c>
-      <c r="F87" s="28" t="s">
+      <c r="F89" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="G87" s="29" t="s">
-        <v>713</v>
-      </c>
-      <c r="H87" s="29"/>
-      <c r="I87" s="243"/>
-    </row>
-    <row r="88" spans="1:9" ht="28">
-      <c r="A88" s="31"/>
-      <c r="B88" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="272" t="s">
-        <v>45</v>
-      </c>
-      <c r="F88" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="243"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="31"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="272" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="28" t="s">
-        <v>87</v>
-      </c>
       <c r="G89" s="29" t="s">
-        <v>587</v>
+        <v>711</v>
       </c>
       <c r="H89" s="29"/>
-      <c r="I89" s="243"/>
+      <c r="I89" s="241"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="31"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28" t="s">
-        <v>92</v>
-      </c>
+      <c r="B90" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="28"/>
       <c r="D90" s="28"/>
-      <c r="E90" s="272" t="s">
-        <v>10</v>
+      <c r="E90" s="262" t="s">
+        <v>45</v>
       </c>
       <c r="F90" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G90" s="29" t="s">
-        <v>588</v>
-      </c>
-      <c r="H90" s="29"/>
-      <c r="I90" s="243" t="s">
-        <v>599</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="241"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="31"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D91" s="28"/>
-      <c r="E91" s="272" t="s">
+      <c r="E91" s="262" t="s">
         <v>10</v>
       </c>
       <c r="F91" s="28" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="G91" s="29" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H91" s="29"/>
-      <c r="I91" s="243" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="I91" s="241"/>
+    </row>
+    <row r="92" spans="1:9" ht="30">
       <c r="A92" s="31"/>
       <c r="B92" s="28"/>
       <c r="C92" s="28" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="D92" s="28"/>
-      <c r="E92" s="272" t="s">
+      <c r="E92" s="262" t="s">
         <v>10</v>
       </c>
       <c r="F92" s="28" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G92" s="29" t="s">
-        <v>288</v>
+        <v>588</v>
       </c>
       <c r="H92" s="29"/>
-      <c r="I92" s="243" t="s">
+      <c r="I92" s="241" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="28">
+    <row r="93" spans="1:9" ht="45">
       <c r="A93" s="31"/>
-      <c r="B93" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="D93" s="28"/>
-      <c r="E93" s="272" t="s">
-        <v>45</v>
+      <c r="E93" s="262" t="s">
+        <v>10</v>
       </c>
       <c r="F93" s="28" t="s">
-        <v>580</v>
+        <v>25</v>
       </c>
       <c r="G93" s="29" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H93" s="29"/>
-      <c r="I93" s="243"/>
+      <c r="I93" s="241" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="94" spans="1:9" ht="30">
       <c r="A94" s="31"/>
-      <c r="B94" s="28" t="s">
+      <c r="B94" s="28"/>
+      <c r="C94" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="28"/>
+      <c r="E94" s="262" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="H94" s="29"/>
+      <c r="I94" s="241" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="45">
+      <c r="A95" s="31"/>
+      <c r="B95" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="262" t="s">
+        <v>45</v>
+      </c>
+      <c r="F95" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="G95" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="H95" s="29"/>
+      <c r="I95" s="241"/>
+    </row>
+    <row r="96" spans="1:9" ht="75">
+      <c r="A96" s="31"/>
+      <c r="B96" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="272" t="s">
-        <v>45</v>
-      </c>
-      <c r="F94" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="G94" s="29" t="s">
-        <v>688</v>
-      </c>
-      <c r="H94" s="29"/>
-      <c r="I94" s="243"/>
-    </row>
-    <row r="95" spans="1:9" ht="165">
-      <c r="A95" s="31" t="s">
-        <v>689</v>
-      </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="248" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="120">
-      <c r="A96" s="31" t="s">
-        <v>581</v>
-      </c>
-      <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
-      <c r="E96" s="248" t="s">
+      <c r="E96" s="262" t="s">
+        <v>45</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="G96" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="H96" s="29"/>
+      <c r="I96" s="241"/>
+    </row>
+    <row r="97" spans="1:9" ht="409.6">
+      <c r="A97" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="245" t="s">
         <v>19</v>
       </c>
-      <c r="F96" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="G96" s="29" t="s">
-        <v>691</v>
-      </c>
-      <c r="H96" s="29"/>
-      <c r="I96" s="243"/>
-    </row>
-    <row r="97" spans="1:9" ht="28">
-      <c r="A97" s="31"/>
-      <c r="B97" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="248" t="s">
-        <v>10</v>
-      </c>
       <c r="F97" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="G97" s="28" t="s">
-        <v>591</v>
-      </c>
-      <c r="H97" s="28"/>
-      <c r="I97" s="243"/>
-    </row>
-    <row r="98" spans="1:9" ht="60">
-      <c r="A98" s="31"/>
-      <c r="B98" s="28" t="s">
-        <v>567</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="409.6">
+      <c r="A98" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
-      <c r="E98" s="248" t="s">
-        <v>45</v>
+      <c r="E98" s="245" t="s">
+        <v>19</v>
       </c>
       <c r="F98" s="28" t="s">
-        <v>582</v>
-      </c>
-      <c r="G98" s="28" t="s">
-        <v>592</v>
-      </c>
-      <c r="H98" s="28"/>
-      <c r="I98" s="243"/>
-    </row>
-    <row r="99" spans="1:9" ht="28">
+        <v>135</v>
+      </c>
+      <c r="G98" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="H98" s="29"/>
+      <c r="I98" s="241"/>
+    </row>
+    <row r="99" spans="1:9" ht="29">
       <c r="A99" s="31"/>
       <c r="B99" s="28" t="s">
-        <v>575</v>
+        <v>28</v>
       </c>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
-      <c r="E99" s="248" t="s">
-        <v>45</v>
+      <c r="E99" s="245" t="s">
+        <v>10</v>
       </c>
       <c r="F99" s="28" t="s">
         <v>46</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H99" s="28"/>
-      <c r="I99" s="243"/>
-    </row>
-    <row r="100" spans="1:9" ht="28">
+      <c r="I99" s="241"/>
+    </row>
+    <row r="100" spans="1:9" ht="45">
       <c r="A100" s="31"/>
       <c r="B100" s="28" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
-      <c r="E100" s="248" t="s">
+      <c r="E100" s="245" t="s">
+        <v>45</v>
+      </c>
+      <c r="F100" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="H100" s="28"/>
+      <c r="I100" s="241"/>
+    </row>
+    <row r="101" spans="1:9" ht="43">
+      <c r="A101" s="31"/>
+      <c r="B101" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="245" t="s">
+        <v>45</v>
+      </c>
+      <c r="F101" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G101" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="H101" s="28"/>
+      <c r="I101" s="241"/>
+    </row>
+    <row r="102" spans="1:9" ht="28">
+      <c r="A102" s="31"/>
+      <c r="B102" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="F100" s="28" t="s">
+      <c r="F102" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G100" s="28" t="s">
+      <c r="G102" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="H100" s="28"/>
-      <c r="I100" s="243"/>
-    </row>
-    <row r="101" spans="1:9" ht="29" thickBot="1">
-      <c r="A101" s="264"/>
-      <c r="B101" s="220" t="s">
+      <c r="H102" s="28"/>
+      <c r="I102" s="241"/>
+    </row>
+    <row r="103" spans="1:9" ht="29" thickBot="1">
+      <c r="A103" s="32"/>
+      <c r="B103" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="C101" s="220"/>
-      <c r="D101" s="220"/>
-      <c r="E101" s="273" t="s">
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="340" t="s">
         <v>35</v>
       </c>
-      <c r="F101" s="220" t="s">
+      <c r="F103" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="G101" s="220" t="s">
+      <c r="G103" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="H101" s="220"/>
-      <c r="I101" s="245"/>
-    </row>
-    <row r="102" spans="1:9" s="265" customFormat="1">
-      <c r="E102" s="266"/>
-      <c r="G102" s="267"/>
-      <c r="I102" s="268"/>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103" s="56"/>
-      <c r="F103"/>
-      <c r="G103" s="269"/>
-      <c r="H103"/>
-      <c r="I103" s="270"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104" s="56"/>
-      <c r="F104"/>
-      <c r="G104" s="269"/>
-      <c r="H104"/>
-      <c r="I104" s="270"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105" s="56"/>
-      <c r="F105"/>
-      <c r="G105" s="269"/>
-      <c r="H105"/>
-      <c r="I105" s="270"/>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106" s="56"/>
-      <c r="F106"/>
-      <c r="G106" s="269"/>
-      <c r="H106"/>
-      <c r="I106" s="270"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107" s="56"/>
-      <c r="F107"/>
-      <c r="G107" s="269"/>
-      <c r="H107"/>
-      <c r="I107" s="270"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108" s="56"/>
-      <c r="F108"/>
-      <c r="G108" s="269"/>
-      <c r="H108"/>
-      <c r="I108" s="270"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109" s="56"/>
-      <c r="F109"/>
-      <c r="G109" s="269"/>
-      <c r="H109"/>
-      <c r="I109" s="270"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110" s="56"/>
-      <c r="F110"/>
-      <c r="G110" s="269"/>
-      <c r="H110"/>
-      <c r="I110" s="270"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111" s="56"/>
-      <c r="F111"/>
-      <c r="G111" s="269"/>
-      <c r="H111"/>
-      <c r="I111" s="270"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112" s="56"/>
-      <c r="F112"/>
-      <c r="G112" s="269"/>
-      <c r="H112"/>
-      <c r="I112" s="270"/>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113" s="56"/>
-      <c r="F113"/>
-      <c r="G113" s="269"/>
-      <c r="H113"/>
-      <c r="I113" s="270"/>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114" s="56"/>
-      <c r="F114"/>
-      <c r="G114" s="269"/>
-      <c r="H114"/>
-      <c r="I114" s="270"/>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115" s="56"/>
-      <c r="F115"/>
-      <c r="G115" s="269"/>
-      <c r="H115"/>
-      <c r="I115" s="270"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116" s="56"/>
-      <c r="F116"/>
-      <c r="G116" s="269"/>
-      <c r="H116"/>
-      <c r="I116" s="270"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="249"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="G37:G42"/>
     <mergeCell ref="H37:H42"/>
     <mergeCell ref="I37:I42"/>
-    <mergeCell ref="G37:G42"/>
-    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="25"/>
   <hyperlinks>
-    <hyperlink ref="I20" r:id="rId1" xr:uid="{FF253282-C154-6D41-8161-FE49B54F9C30}"/>
-    <hyperlink ref="I33" r:id="rId2" xr:uid="{E0DCF39C-55AC-3A40-9E90-24F8723AF5AA}"/>
-    <hyperlink ref="I54" r:id="rId3" xr:uid="{EC35DE78-9641-894D-981B-61ECCAE64EDE}"/>
-    <hyperlink ref="I17" r:id="rId4" xr:uid="{993963B1-95C5-A941-987A-B740FA7F19D9}"/>
-    <hyperlink ref="I15" r:id="rId5" xr:uid="{809481E2-613C-D842-862E-CC9AFFA6127D}"/>
+    <hyperlink ref="I20" r:id="rId1" xr:uid="{D70E2A9B-5244-544B-AA08-BA6D652BBB9D}"/>
+    <hyperlink ref="I33" r:id="rId2" xr:uid="{9B3F23E5-39D8-0F4B-AAEA-AA524D147D2B}"/>
+    <hyperlink ref="I54" r:id="rId3" xr:uid="{D3D23FDD-0900-6C47-9AA4-C23875C44E45}"/>
+    <hyperlink ref="I17" r:id="rId4" xr:uid="{C60F2DFA-0369-4B4C-9F1D-D4F5C9E9E578}"/>
+    <hyperlink ref="I15" r:id="rId5" xr:uid="{91AD05B3-E876-4043-9E91-ABC4138C60BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -20384,17 +20368,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="333" t="s">
-        <v>723</v>
-      </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="333"/>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="333"/>
-      <c r="G1" s="333"/>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
+      <c r="A1" s="322" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="G1" s="322"/>
+      <c r="H1" s="322"/>
+      <c r="I1" s="322"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="166" t="s">
@@ -20456,7 +20440,7 @@
         <v>278</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H4" s="165"/>
       <c r="I4" s="61"/>
@@ -22291,151 +22275,151 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="326" customWidth="1"/>
-    <col min="2" max="4" width="7.85546875" style="326" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="326" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="326" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="326" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="326" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="332" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="326"/>
+    <col min="1" max="1" width="11.42578125" style="315" customWidth="1"/>
+    <col min="2" max="4" width="7.85546875" style="315" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="315" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="315" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="315" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="315" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="321" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="315"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1">
-      <c r="A1" s="345" t="s">
-        <v>723</v>
-      </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
+      <c r="A1" s="334" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="334"/>
+      <c r="G1" s="334"/>
+      <c r="H1" s="334"/>
+      <c r="I1" s="334"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="316" t="s">
+      <c r="B2" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="316" t="s">
+      <c r="C2" s="305" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="316" t="s">
+      <c r="D2" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="317" t="s">
+      <c r="E2" s="306" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="316" t="s">
+      <c r="F2" s="305" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="316" t="s">
+      <c r="G2" s="305" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="316" t="s">
+      <c r="H2" s="305" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="318" t="s">
+      <c r="I2" s="307" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="210" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="319" t="s">
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="308" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="259"/>
-      <c r="G3" s="320" t="s">
+      <c r="F3" s="255"/>
+      <c r="G3" s="309" t="s">
+        <v>760</v>
+      </c>
+      <c r="H3" s="255" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="310" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="210" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="255"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="311" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="255" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="255" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="255"/>
+      <c r="I4" s="310"/>
+    </row>
+    <row r="5" spans="1:9" ht="255">
+      <c r="A5" s="210" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="255" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="311" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="255" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="255" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" s="255" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="310" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="120">
+      <c r="A6" s="210" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="255" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
+      <c r="E6" s="312" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="255" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="313" t="s">
         <v>762</v>
       </c>
-      <c r="H3" s="259" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="321" t="s">
+      <c r="H6" s="255" t="s">
+        <v>720</v>
+      </c>
+      <c r="I6" s="314" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="211" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="259"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="322" t="s">
-        <v>217</v>
-      </c>
-      <c r="F4" s="259" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="259" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" s="259"/>
-      <c r="I4" s="321"/>
-    </row>
-    <row r="5" spans="1:9" ht="255">
-      <c r="A5" s="211" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="259" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="259"/>
-      <c r="D5" s="259"/>
-      <c r="E5" s="322" t="s">
-        <v>217</v>
-      </c>
-      <c r="F5" s="259" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="259" t="s">
-        <v>259</v>
-      </c>
-      <c r="H5" s="259" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="321" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="120">
-      <c r="A6" s="211" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="259" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="323" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="259" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="324" t="s">
-        <v>764</v>
-      </c>
-      <c r="H6" s="259" t="s">
-        <v>722</v>
-      </c>
-      <c r="I6" s="325" t="s">
-        <v>765</v>
-      </c>
-    </row>
     <row r="7" spans="1:9" ht="30">
-      <c r="A7" s="327" t="s">
-        <v>843</v>
+      <c r="A7" s="316" t="s">
+        <v>841</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -22447,14 +22431,14 @@
         <v>38</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="321"/>
+      <c r="I7" s="310"/>
     </row>
     <row r="8" spans="1:9" ht="45">
-      <c r="A8" s="327" t="s">
-        <v>859</v>
+      <c r="A8" s="316" t="s">
+        <v>857</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>24</v>
@@ -22466,18 +22450,18 @@
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>722</v>
-      </c>
-      <c r="I8" s="321" t="s">
-        <v>766</v>
+        <v>720</v>
+      </c>
+      <c r="I8" s="310" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="327" t="s">
-        <v>860</v>
+      <c r="A9" s="316" t="s">
+        <v>858</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>41</v>
@@ -22489,117 +22473,117 @@
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="I9" s="321" t="s">
+        <v>670</v>
+      </c>
+      <c r="I9" s="310" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="45">
-      <c r="A10" s="327" t="s">
+      <c r="A10" s="316" t="s">
         <v>265</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
-      <c r="E10" s="328" t="s">
+      <c r="E10" s="317" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>722</v>
-      </c>
-      <c r="I10" s="321" t="s">
-        <v>767</v>
+        <v>720</v>
+      </c>
+      <c r="I10" s="310" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="327" t="s">
-        <v>768</v>
+      <c r="A11" s="316" t="s">
+        <v>766</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
-      <c r="E11" s="328" t="s">
+      <c r="E11" s="317" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="321"/>
+      <c r="I11" s="310"/>
     </row>
     <row r="12" spans="1:9" ht="45">
-      <c r="A12" s="327" t="s">
-        <v>768</v>
+      <c r="A12" s="316" t="s">
+        <v>766</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="328" t="s">
+      <c r="E12" s="317" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>722</v>
-      </c>
-      <c r="I12" s="321" t="s">
-        <v>770</v>
+        <v>720</v>
+      </c>
+      <c r="I12" s="310" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60">
-      <c r="A13" s="327" t="s">
-        <v>768</v>
+      <c r="A13" s="316" t="s">
+        <v>766</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="328" t="s">
+      <c r="E13" s="317" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="I13" s="321" t="s">
-        <v>817</v>
+      <c r="I13" s="310" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="327" t="s">
-        <v>768</v>
+      <c r="A14" s="316" t="s">
+        <v>766</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>140</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="328" t="s">
+      <c r="E14" s="317" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="29" t="s">
@@ -22609,13 +22593,13 @@
       <c r="H14" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="I14" s="321" t="s">
-        <v>868</v>
+      <c r="I14" s="310" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45">
-      <c r="A15" s="327" t="s">
-        <v>839</v>
+      <c r="A15" s="316" t="s">
+        <v>837</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -22625,17 +22609,17 @@
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="321"/>
+      <c r="I15" s="310"/>
     </row>
     <row r="16" spans="1:9" ht="34" customHeight="1">
-      <c r="A16" s="327" t="s">
-        <v>840</v>
+      <c r="A16" s="316" t="s">
+        <v>838</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -22646,17 +22630,17 @@
         <v>22</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H16" s="29"/>
-      <c r="I16" s="321"/>
+      <c r="I16" s="310"/>
     </row>
     <row r="17" spans="1:9" ht="45">
-      <c r="A17" s="327" t="s">
-        <v>841</v>
+      <c r="A17" s="316" t="s">
+        <v>839</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>24</v>
@@ -22669,21 +22653,21 @@
         <v>25</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>722</v>
-      </c>
-      <c r="I17" s="321" t="s">
-        <v>770</v>
+        <v>720</v>
+      </c>
+      <c r="I17" s="310" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="75">
-      <c r="A18" s="327" t="s">
-        <v>841</v>
+      <c r="A18" s="316" t="s">
+        <v>839</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>28</v>
@@ -22694,19 +22678,19 @@
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="321" t="s">
-        <v>846</v>
+      <c r="I18" s="310" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="26" customHeight="1">
-      <c r="A19" s="327" t="s">
-        <v>841</v>
+      <c r="A19" s="316" t="s">
+        <v>839</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>140</v>
@@ -22718,16 +22702,16 @@
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
-      <c r="I19" s="321" t="s">
-        <v>871</v>
+      <c r="I19" s="310" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30">
-      <c r="A20" s="327" t="s">
-        <v>841</v>
+      <c r="A20" s="316" t="s">
+        <v>839</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
@@ -22736,17 +22720,17 @@
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="H20" s="29"/>
-      <c r="I20" s="321"/>
+      <c r="I20" s="310"/>
     </row>
     <row r="21" spans="1:9" ht="45">
-      <c r="A21" s="327" t="s">
-        <v>841</v>
+      <c r="A21" s="316" t="s">
+        <v>839</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>99</v>
@@ -22759,19 +22743,19 @@
         <v>82</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="H21" s="29"/>
-      <c r="I21" s="321" t="s">
+      <c r="I21" s="310" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="327" t="s">
-        <v>841</v>
+      <c r="A22" s="316" t="s">
+        <v>839</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>101</v>
@@ -22784,16 +22768,16 @@
         <v>82</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H22" s="29"/>
-      <c r="I22" s="321" t="s">
-        <v>773</v>
+      <c r="I22" s="310" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="327" t="s">
-        <v>771</v>
+      <c r="A23" s="316" t="s">
+        <v>769</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -22802,17 +22786,17 @@
         <v>45</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="H23" s="29"/>
-      <c r="I23" s="321"/>
+      <c r="I23" s="310"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="327" t="s">
-        <v>771</v>
+      <c r="A24" s="316" t="s">
+        <v>769</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>99</v>
@@ -22826,16 +22810,16 @@
         <v>82</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="H24" s="29"/>
-      <c r="I24" s="321" t="s">
-        <v>861</v>
+      <c r="I24" s="310" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="327" t="s">
-        <v>771</v>
+      <c r="A25" s="316" t="s">
+        <v>769</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>101</v>
@@ -22849,16 +22833,16 @@
         <v>82</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="H25" s="29"/>
-      <c r="I25" s="321" t="s">
+      <c r="I25" s="310" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="316" t="s">
         <v>777</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="327" t="s">
-        <v>779</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -22870,14 +22854,14 @@
         <v>356</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="H26" s="29"/>
-      <c r="I26" s="321"/>
+      <c r="I26" s="310"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="327" t="s">
-        <v>779</v>
+      <c r="A27" s="316" t="s">
+        <v>777</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>41</v>
@@ -22891,16 +22875,16 @@
         <v>87</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H27" s="29"/>
-      <c r="I27" s="321">
+      <c r="I27" s="310">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="327" t="s">
-        <v>779</v>
+      <c r="A28" s="316" t="s">
+        <v>777</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>92</v>
@@ -22914,16 +22898,16 @@
         <v>42</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="H28" s="29"/>
-      <c r="I28" s="321" t="s">
-        <v>847</v>
+      <c r="I28" s="310" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="24" customHeight="1">
-      <c r="A29" s="327" t="s">
-        <v>779</v>
+      <c r="A29" s="316" t="s">
+        <v>777</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>24</v>
@@ -22937,16 +22921,16 @@
         <v>25</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="H29" s="29"/>
-      <c r="I29" s="321" t="s">
+      <c r="I29" s="310" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="327" t="s">
-        <v>779</v>
+      <c r="A30" s="316" t="s">
+        <v>777</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>28</v>
@@ -22960,39 +22944,39 @@
         <v>28</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="H30" s="29"/>
-      <c r="I30" s="321" t="s">
+      <c r="I30" s="310" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="135">
-      <c r="A31" s="327" t="s">
-        <v>838</v>
+      <c r="A31" s="316" t="s">
+        <v>836</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="329" t="s">
+      <c r="E31" s="318" t="s">
         <v>231</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>46</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="I31" s="330" t="s">
-        <v>828</v>
+        <v>670</v>
+      </c>
+      <c r="I31" s="319" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="327" t="s">
-        <v>834</v>
+      <c r="A32" s="316" t="s">
+        <v>832</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -23002,17 +22986,17 @@
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H32" s="29"/>
-      <c r="I32" s="321"/>
+      <c r="I32" s="310"/>
     </row>
     <row r="33" spans="1:9" ht="30">
-      <c r="A33" s="327" t="s">
-        <v>835</v>
+      <c r="A33" s="316" t="s">
+        <v>833</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
@@ -23020,20 +23004,20 @@
         <v>10</v>
       </c>
       <c r="F33" s="29" t="s">
+        <v>782</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="H33" s="29"/>
+      <c r="I33" s="310"/>
+    </row>
+    <row r="34" spans="1:9" ht="90">
+      <c r="A34" s="316" t="s">
+        <v>834</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>784</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>785</v>
-      </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="321"/>
-    </row>
-    <row r="34" spans="1:9" ht="90">
-      <c r="A34" s="327" t="s">
-        <v>836</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>786</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -23044,17 +23028,17 @@
         <v>46</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="H34" s="29"/>
-      <c r="I34" s="321"/>
+      <c r="I34" s="310"/>
     </row>
     <row r="35" spans="1:9" ht="30">
-      <c r="A35" s="327" t="s">
-        <v>836</v>
+      <c r="A35" s="316" t="s">
+        <v>834</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>407</v>
@@ -23065,17 +23049,17 @@
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="29" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="H35" s="29"/>
-      <c r="I35" s="321"/>
+      <c r="I35" s="310"/>
     </row>
     <row r="36" spans="1:9" ht="30">
-      <c r="A36" s="327" t="s">
-        <v>836</v>
+      <c r="A36" s="316" t="s">
+        <v>834</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>408</v>
@@ -23088,19 +23072,19 @@
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="H36" s="29"/>
-      <c r="I36" s="321" t="s">
-        <v>851</v>
+      <c r="I36" s="310" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="45">
-      <c r="A37" s="327" t="s">
-        <v>836</v>
+      <c r="A37" s="316" t="s">
+        <v>834</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>409</v>
@@ -23113,19 +23097,19 @@
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="29" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H37" s="29"/>
-      <c r="I37" s="321" t="s">
-        <v>788</v>
+      <c r="I37" s="310" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="327" t="s">
-        <v>836</v>
+      <c r="A38" s="316" t="s">
+        <v>834</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>409</v>
@@ -23138,19 +23122,19 @@
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="29" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="H38" s="29"/>
-      <c r="I38" s="321" t="s">
-        <v>853</v>
+      <c r="I38" s="310" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30">
-      <c r="A39" s="327" t="s">
-        <v>836</v>
+      <c r="A39" s="316" t="s">
+        <v>834</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
@@ -23158,19 +23142,19 @@
         <v>45</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="321">
+      <c r="I39" s="310">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30">
-      <c r="A40" s="327" t="s">
-        <v>792</v>
+      <c r="A40" s="316" t="s">
+        <v>790</v>
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -23182,17 +23166,17 @@
         <v>135</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="321"/>
+      <c r="I40" s="310"/>
     </row>
     <row r="41" spans="1:9" ht="60">
-      <c r="A41" s="327" t="s">
-        <v>792</v>
+      <c r="A41" s="316" t="s">
+        <v>790</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -23200,20 +23184,20 @@
         <v>45</v>
       </c>
       <c r="F41" s="29" t="s">
+        <v>792</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>793</v>
+      </c>
+      <c r="H41" s="29"/>
+      <c r="I41" s="310"/>
+    </row>
+    <row r="42" spans="1:9" ht="135">
+      <c r="A42" s="316" t="s">
+        <v>790</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>794</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>795</v>
-      </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="321"/>
-    </row>
-    <row r="42" spans="1:9" ht="135">
-      <c r="A42" s="327" t="s">
-        <v>792</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>796</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
@@ -23224,21 +23208,21 @@
         <v>46</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>687</v>
-      </c>
-      <c r="I42" s="330" t="s">
-        <v>826</v>
+        <v>685</v>
+      </c>
+      <c r="I42" s="319" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30">
-      <c r="A43" s="327" t="s">
-        <v>792</v>
+      <c r="A43" s="316" t="s">
+        <v>790</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
@@ -23249,17 +23233,17 @@
         <v>46</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="H43" s="29"/>
-      <c r="I43" s="321"/>
+      <c r="I43" s="310"/>
     </row>
     <row r="44" spans="1:9" ht="30">
-      <c r="A44" s="327" t="s">
-        <v>792</v>
+      <c r="A44" s="316" t="s">
+        <v>790</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
@@ -23270,17 +23254,17 @@
         <v>46</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="H44" s="29"/>
-      <c r="I44" s="321"/>
+      <c r="I44" s="310"/>
     </row>
     <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="327" t="s">
-        <v>792</v>
+      <c r="A45" s="316" t="s">
+        <v>790</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
@@ -23291,17 +23275,17 @@
         <v>46</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H45" s="29"/>
-      <c r="I45" s="321"/>
+      <c r="I45" s="310"/>
     </row>
     <row r="46" spans="1:9" ht="60">
-      <c r="A46" s="327" t="s">
-        <v>792</v>
+      <c r="A46" s="316" t="s">
+        <v>790</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
@@ -23309,20 +23293,20 @@
         <v>45</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H46" s="29"/>
-      <c r="I46" s="321"/>
+      <c r="I46" s="310"/>
     </row>
     <row r="47" spans="1:9" ht="135">
-      <c r="A47" s="327" t="s">
-        <v>792</v>
+      <c r="A47" s="316" t="s">
+        <v>790</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
@@ -23333,16 +23317,16 @@
         <v>46</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="H47" s="29"/>
-      <c r="I47" s="330" t="s">
-        <v>827</v>
+      <c r="I47" s="319" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30">
-      <c r="A48" s="327" t="s">
-        <v>831</v>
+      <c r="A48" s="316" t="s">
+        <v>829</v>
       </c>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -23354,17 +23338,17 @@
         <v>135</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="H48" s="29"/>
-      <c r="I48" s="321"/>
+      <c r="I48" s="310"/>
     </row>
     <row r="49" spans="1:9" ht="30">
-      <c r="A49" s="327" t="s">
-        <v>832</v>
+      <c r="A49" s="316" t="s">
+        <v>830</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
@@ -23372,17 +23356,17 @@
         <v>45</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H49" s="29"/>
-      <c r="I49" s="321"/>
+      <c r="I49" s="310"/>
     </row>
     <row r="50" spans="1:9" ht="30">
-      <c r="A50" s="327" t="s">
-        <v>833</v>
+      <c r="A50" s="316" t="s">
+        <v>831</v>
       </c>
       <c r="B50" s="29" t="s">
         <v>265</v>
@@ -23396,21 +23380,21 @@
         <v>28</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="I50" s="321" t="s">
-        <v>806</v>
+        <v>670</v>
+      </c>
+      <c r="I50" s="310" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="90">
-      <c r="A51" s="327" t="s">
-        <v>833</v>
+      <c r="A51" s="316" t="s">
+        <v>831</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
@@ -23421,21 +23405,21 @@
         <v>46</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>822</v>
-      </c>
-      <c r="I51" s="321" t="s">
-        <v>808</v>
+        <v>820</v>
+      </c>
+      <c r="I51" s="310" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="327" t="s">
-        <v>833</v>
+      <c r="A52" s="316" t="s">
+        <v>831</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
@@ -23446,17 +23430,17 @@
         <v>354</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H52" s="29"/>
-      <c r="I52" s="321"/>
+      <c r="I52" s="310"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="327" t="s">
-        <v>833</v>
+      <c r="A53" s="316" t="s">
+        <v>831</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>99</v>
@@ -23469,17 +23453,17 @@
         <v>82</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="H53" s="29"/>
-      <c r="I53" s="321"/>
+      <c r="I53" s="310"/>
     </row>
     <row r="54" spans="1:9" ht="16" thickBot="1">
-      <c r="A54" s="327" t="s">
-        <v>833</v>
+      <c r="A54" s="316" t="s">
+        <v>831</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C54" s="34" t="s">
         <v>101</v>
@@ -23492,10 +23476,10 @@
         <v>82</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="H54" s="34"/>
-      <c r="I54" s="331"/>
+      <c r="I54" s="320"/>
     </row>
   </sheetData>
   <mergeCells count="1">
